--- a/data/Внутренняя миграция.xlsx
+++ b/data/Внутренняя миграция.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aibek\Desktop\Project\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F236B00D-CAE9-4275-AE2A-203604B0A88C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Прибывшие" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="51">
   <si>
     <t>май</t>
   </si>
@@ -120,9 +126,6 @@
     <t>г. Астана</t>
   </si>
   <si>
-    <t>Число прибывших в пределах Республики Казахстан</t>
-  </si>
-  <si>
     <t>Ұлытау</t>
   </si>
   <si>
@@ -137,12 +140,48 @@
   <si>
     <t>Сальдо внутренней миграции населения Республики Казахстан</t>
   </si>
+  <si>
+    <t>Костанай</t>
+  </si>
+  <si>
+    <t>Мангыстау</t>
+  </si>
+  <si>
+    <t>Павлодар</t>
+  </si>
+  <si>
+    <t>Актобе</t>
+  </si>
+  <si>
+    <t>Алматы</t>
+  </si>
+  <si>
+    <t>Астана</t>
+  </si>
+  <si>
+    <t>Шымкент</t>
+  </si>
+  <si>
+    <t>Караганда</t>
+  </si>
+  <si>
+    <t>Жамбыл</t>
+  </si>
+  <si>
+    <t>ВКО</t>
+  </si>
+  <si>
+    <t>Атырау</t>
+  </si>
+  <si>
+    <t>Петропавловск</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,6 +271,11 @@
       <color theme="1"/>
       <name val="Roboto"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="2">
@@ -344,44 +388,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -391,16 +425,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -424,10 +448,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -442,11 +466,18 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="2"/>
-    <cellStyle name="Обычный_обл.уровень" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный_обл.уровень" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -471,8 +502,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
@@ -481,7 +512,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="Group 17068">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -499,7 +530,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2619375" cy="704850"/>
+          <a:ext cx="2695575" cy="704850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -538,64 +569,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="Group 17068">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="2695575" cy="704850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Group 17068">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -633,9 +607,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -673,7 +647,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -745,7 +719,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -918,3402 +892,657 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="14"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="5" width="9.140625" style="18"/>
+    <col min="2" max="3" width="9.140625" style="1"/>
+    <col min="4" max="5" width="9.140625" style="8"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-    </row>
-    <row r="5" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="Q5" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="39">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="27"/>
+      <c r="B1" s="29">
         <v>2024</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="32">
-        <v>2025</v>
-      </c>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="24" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="24" t="s">
+      <c r="J2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="24" t="s">
+      <c r="K2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="24" t="s">
+      <c r="L2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="26" t="s">
+      <c r="M2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="N7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="O7" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="P7" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q7" s="28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" s="22" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="8">
-        <v>139400</v>
-      </c>
-      <c r="C9" s="7">
-        <v>114979</v>
-      </c>
-      <c r="D9" s="7">
-        <v>98379</v>
-      </c>
-      <c r="E9" s="7">
-        <v>114602</v>
-      </c>
-      <c r="F9" s="7">
-        <v>110984</v>
-      </c>
-      <c r="G9" s="7">
-        <v>110053</v>
-      </c>
-      <c r="H9" s="7">
-        <v>124835</v>
-      </c>
-      <c r="I9" s="7">
-        <v>119879</v>
-      </c>
-      <c r="J9" s="7">
-        <v>146980</v>
-      </c>
-      <c r="K9" s="7">
-        <v>163248</v>
-      </c>
-      <c r="L9" s="7">
-        <v>145007</v>
-      </c>
-      <c r="M9" s="7">
-        <v>121991</v>
-      </c>
-      <c r="N9" s="7">
-        <v>157478</v>
-      </c>
-      <c r="O9" s="7">
-        <v>143342</v>
-      </c>
-      <c r="P9" s="7">
-        <v>116753</v>
-      </c>
-      <c r="Q9" s="29">
-        <v>146248</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="31">
+        <v>2636</v>
+      </c>
+      <c r="C3" s="31">
+        <v>2270</v>
+      </c>
+      <c r="D3" s="31">
+        <v>1785</v>
+      </c>
+      <c r="E3" s="31">
+        <v>2174</v>
+      </c>
+      <c r="F3" s="31">
+        <v>1942</v>
+      </c>
+      <c r="G3" s="31">
+        <v>2137</v>
+      </c>
+      <c r="H3" s="31">
+        <v>2339</v>
+      </c>
+      <c r="I3" s="31">
+        <v>2096</v>
+      </c>
+      <c r="J3" s="31">
+        <v>3077</v>
+      </c>
+      <c r="K3" s="31">
+        <v>3312</v>
+      </c>
+      <c r="L3" s="31">
+        <v>3131</v>
+      </c>
+      <c r="M3" s="31">
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="31">
+        <v>4341</v>
+      </c>
+      <c r="C4" s="31">
+        <v>3715</v>
+      </c>
+      <c r="D4" s="31">
+        <v>3406</v>
+      </c>
+      <c r="E4" s="31">
+        <v>4259</v>
+      </c>
+      <c r="F4" s="31">
+        <v>4057</v>
+      </c>
+      <c r="G4" s="31">
+        <v>4502</v>
+      </c>
+      <c r="H4" s="31">
+        <v>5626</v>
+      </c>
+      <c r="I4" s="31">
+        <v>5505</v>
+      </c>
+      <c r="J4" s="31">
+        <v>6768</v>
+      </c>
+      <c r="K4" s="31">
+        <v>6801</v>
+      </c>
+      <c r="L4" s="31">
+        <v>5650</v>
+      </c>
+      <c r="M4" s="31">
+        <v>4448</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="31">
+        <v>3913</v>
+      </c>
+      <c r="C5" s="31">
+        <v>2993</v>
+      </c>
+      <c r="D5" s="31">
+        <v>2381</v>
+      </c>
+      <c r="E5" s="31">
+        <v>3314</v>
+      </c>
+      <c r="F5" s="31">
+        <v>3024</v>
+      </c>
+      <c r="G5" s="31">
+        <v>3056</v>
+      </c>
+      <c r="H5" s="31">
+        <v>3679</v>
+      </c>
+      <c r="I5" s="31">
+        <v>3519</v>
+      </c>
+      <c r="J5" s="31">
+        <v>3169</v>
+      </c>
+      <c r="K5" s="31">
+        <v>3905</v>
+      </c>
+      <c r="L5" s="31">
+        <v>3235</v>
+      </c>
+      <c r="M5" s="31">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="31">
+        <v>6497</v>
+      </c>
+      <c r="C6" s="31">
+        <v>4778</v>
+      </c>
+      <c r="D6" s="31">
+        <v>4009</v>
+      </c>
+      <c r="E6" s="31">
+        <v>4532</v>
+      </c>
+      <c r="F6" s="31">
+        <v>4627</v>
+      </c>
+      <c r="G6" s="31">
+        <v>4226</v>
+      </c>
+      <c r="H6" s="31">
+        <v>4710</v>
+      </c>
+      <c r="I6" s="31">
+        <v>4096</v>
+      </c>
+      <c r="J6" s="31">
+        <v>5341</v>
+      </c>
+      <c r="K6" s="31">
+        <v>6085</v>
+      </c>
+      <c r="L6" s="31">
+        <v>5390</v>
+      </c>
+      <c r="M6" s="31">
+        <v>4364</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="31">
+        <v>4626</v>
+      </c>
+      <c r="C7" s="31">
+        <v>3780</v>
+      </c>
+      <c r="D7" s="31">
+        <v>3445</v>
+      </c>
+      <c r="E7" s="31">
+        <v>3742</v>
+      </c>
+      <c r="F7" s="31">
+        <v>3800</v>
+      </c>
+      <c r="G7" s="31">
+        <v>3855</v>
+      </c>
+      <c r="H7" s="31">
+        <v>3987</v>
+      </c>
+      <c r="I7" s="31">
+        <v>4213</v>
+      </c>
+      <c r="J7" s="31">
+        <v>5316</v>
+      </c>
+      <c r="K7" s="31">
+        <v>5566</v>
+      </c>
+      <c r="L7" s="31">
+        <v>4763</v>
+      </c>
+      <c r="M7" s="31">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="31">
+        <v>3221</v>
+      </c>
+      <c r="C8" s="31">
+        <v>2560</v>
+      </c>
+      <c r="D8" s="31">
+        <v>2388</v>
+      </c>
+      <c r="E8" s="31">
+        <v>2718</v>
+      </c>
+      <c r="F8" s="31">
+        <v>2866</v>
+      </c>
+      <c r="G8" s="31">
+        <v>3012</v>
+      </c>
+      <c r="H8" s="31">
+        <v>3259</v>
+      </c>
+      <c r="I8" s="31">
+        <v>3061</v>
+      </c>
+      <c r="J8" s="31">
+        <v>3615</v>
+      </c>
+      <c r="K8" s="31">
+        <v>4164</v>
+      </c>
+      <c r="L8" s="31">
+        <v>3914</v>
+      </c>
+      <c r="M8" s="31">
+        <v>3221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="31">
+        <v>5021</v>
+      </c>
+      <c r="C9" s="31">
+        <v>3692</v>
+      </c>
+      <c r="D9" s="31">
+        <v>3158</v>
+      </c>
+      <c r="E9" s="31">
+        <v>3771</v>
+      </c>
+      <c r="F9" s="31">
+        <v>3723</v>
+      </c>
+      <c r="G9" s="31">
+        <v>3887</v>
+      </c>
+      <c r="H9" s="31">
+        <v>5340</v>
+      </c>
+      <c r="I9" s="31">
+        <v>5628</v>
+      </c>
+      <c r="J9" s="31">
+        <v>5248</v>
+      </c>
+      <c r="K9" s="31">
+        <v>5958</v>
+      </c>
+      <c r="L9" s="31">
+        <v>5181</v>
+      </c>
+      <c r="M9" s="31">
+        <v>4301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="8">
-        <v>2636</v>
-      </c>
-      <c r="C10" s="7">
-        <v>2270</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1785</v>
-      </c>
-      <c r="E10" s="7">
-        <v>2174</v>
-      </c>
-      <c r="F10" s="7">
-        <v>1942</v>
-      </c>
-      <c r="G10" s="7">
-        <v>2137</v>
-      </c>
-      <c r="H10" s="7">
-        <v>2339</v>
-      </c>
-      <c r="I10" s="7">
-        <v>2096</v>
-      </c>
-      <c r="J10" s="7">
-        <v>3077</v>
-      </c>
-      <c r="K10" s="7">
-        <v>3312</v>
-      </c>
-      <c r="L10" s="7">
-        <v>3131</v>
-      </c>
-      <c r="M10" s="7">
-        <v>2478</v>
-      </c>
-      <c r="N10" s="7">
-        <v>3214</v>
-      </c>
-      <c r="O10" s="7">
-        <v>2704</v>
-      </c>
-      <c r="P10" s="7">
-        <v>2059</v>
-      </c>
-      <c r="Q10" s="29">
-        <v>2336</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="8">
-        <v>4209</v>
-      </c>
-      <c r="C11" s="7">
-        <v>3707</v>
-      </c>
-      <c r="D11" s="7">
-        <v>3844</v>
-      </c>
-      <c r="E11" s="7">
-        <v>3667</v>
-      </c>
-      <c r="F11" s="7">
-        <v>3846</v>
-      </c>
-      <c r="G11" s="7">
-        <v>4059</v>
-      </c>
-      <c r="H11" s="7">
-        <v>4134</v>
-      </c>
-      <c r="I11" s="7">
-        <v>3832</v>
-      </c>
-      <c r="J11" s="7">
-        <v>4872</v>
-      </c>
-      <c r="K11" s="7">
-        <v>5326</v>
-      </c>
-      <c r="L11" s="7">
-        <v>4740</v>
-      </c>
-      <c r="M11" s="7">
-        <v>3931</v>
-      </c>
-      <c r="N11" s="7">
-        <v>5028</v>
-      </c>
-      <c r="O11" s="7">
-        <v>5076</v>
-      </c>
-      <c r="P11" s="7">
-        <v>4014</v>
-      </c>
-      <c r="Q11" s="29">
-        <v>5076</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="8">
-        <v>4341</v>
-      </c>
-      <c r="C12" s="7">
-        <v>3715</v>
-      </c>
-      <c r="D12" s="7">
+        <v>41</v>
+      </c>
+      <c r="B10" s="31">
+        <v>3045</v>
+      </c>
+      <c r="C10" s="31">
+        <v>2586</v>
+      </c>
+      <c r="D10" s="31">
+        <v>2315</v>
+      </c>
+      <c r="E10" s="31">
+        <v>2602</v>
+      </c>
+      <c r="F10" s="31">
+        <v>2468</v>
+      </c>
+      <c r="G10" s="31">
+        <v>2439</v>
+      </c>
+      <c r="H10" s="31">
+        <v>2897</v>
+      </c>
+      <c r="I10" s="31">
+        <v>2642</v>
+      </c>
+      <c r="J10" s="31">
+        <v>3435</v>
+      </c>
+      <c r="K10" s="31">
+        <v>3640</v>
+      </c>
+      <c r="L10" s="31">
+        <v>2860</v>
+      </c>
+      <c r="M10" s="31">
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="31">
+        <v>1738</v>
+      </c>
+      <c r="C11" s="31">
+        <v>1577</v>
+      </c>
+      <c r="D11" s="31">
+        <v>1520</v>
+      </c>
+      <c r="E11" s="31">
+        <v>2024</v>
+      </c>
+      <c r="F11" s="31">
+        <v>1466</v>
+      </c>
+      <c r="G11" s="31">
+        <v>1519</v>
+      </c>
+      <c r="H11" s="31">
+        <v>1716</v>
+      </c>
+      <c r="I11" s="31">
+        <v>1647</v>
+      </c>
+      <c r="J11" s="31">
+        <v>2352</v>
+      </c>
+      <c r="K11" s="31">
+        <v>2471</v>
+      </c>
+      <c r="L11" s="31">
+        <v>2198</v>
+      </c>
+      <c r="M11" s="31">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="31">
+        <v>2876</v>
+      </c>
+      <c r="C12" s="31">
+        <v>2459</v>
+      </c>
+      <c r="D12" s="31">
+        <v>2043</v>
+      </c>
+      <c r="E12" s="31">
+        <v>2352</v>
+      </c>
+      <c r="F12" s="31">
+        <v>2517</v>
+      </c>
+      <c r="G12" s="31">
+        <v>2420</v>
+      </c>
+      <c r="H12" s="31">
+        <v>2406</v>
+      </c>
+      <c r="I12" s="31">
+        <v>2233</v>
+      </c>
+      <c r="J12" s="31">
+        <v>3213</v>
+      </c>
+      <c r="K12" s="31">
         <v>3406</v>
       </c>
-      <c r="E12" s="7">
-        <v>4259</v>
-      </c>
-      <c r="F12" s="7">
-        <v>4057</v>
-      </c>
-      <c r="G12" s="7">
-        <v>4502</v>
-      </c>
-      <c r="H12" s="7">
-        <v>5626</v>
-      </c>
-      <c r="I12" s="7">
-        <v>5505</v>
-      </c>
-      <c r="J12" s="7">
-        <v>6768</v>
-      </c>
-      <c r="K12" s="7">
-        <v>6801</v>
-      </c>
-      <c r="L12" s="7">
-        <v>5650</v>
-      </c>
-      <c r="M12" s="7">
-        <v>4448</v>
-      </c>
-      <c r="N12" s="7">
-        <v>5867</v>
-      </c>
-      <c r="O12" s="7">
-        <v>5100</v>
-      </c>
-      <c r="P12" s="7">
-        <v>4112</v>
-      </c>
-      <c r="Q12" s="29">
-        <v>4942</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="8">
-        <v>13868</v>
-      </c>
-      <c r="C13" s="7">
-        <v>12047</v>
-      </c>
-      <c r="D13" s="7">
-        <v>9598</v>
-      </c>
-      <c r="E13" s="7">
-        <v>11544</v>
-      </c>
-      <c r="F13" s="7">
-        <v>11410</v>
-      </c>
-      <c r="G13" s="7">
-        <v>9994</v>
-      </c>
-      <c r="H13" s="7">
-        <v>10728</v>
-      </c>
-      <c r="I13" s="7">
-        <v>10307</v>
-      </c>
-      <c r="J13" s="7">
-        <v>14468</v>
-      </c>
-      <c r="K13" s="7">
-        <v>16741</v>
-      </c>
-      <c r="L13" s="7">
-        <v>14874</v>
-      </c>
-      <c r="M13" s="7">
-        <v>12480</v>
-      </c>
-      <c r="N13" s="7">
-        <v>16354</v>
-      </c>
-      <c r="O13" s="7">
-        <v>16084</v>
-      </c>
-      <c r="P13" s="7">
-        <v>12638</v>
-      </c>
-      <c r="Q13" s="29">
-        <v>16314</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="8">
-        <v>3913</v>
-      </c>
-      <c r="C14" s="7">
-        <v>2993</v>
-      </c>
-      <c r="D14" s="7">
-        <v>2381</v>
-      </c>
-      <c r="E14" s="7">
-        <v>3314</v>
-      </c>
-      <c r="F14" s="7">
-        <v>3024</v>
-      </c>
-      <c r="G14" s="7">
-        <v>3056</v>
-      </c>
-      <c r="H14" s="7">
-        <v>3679</v>
-      </c>
-      <c r="I14" s="7">
-        <v>3519</v>
-      </c>
-      <c r="J14" s="7">
-        <v>3169</v>
-      </c>
-      <c r="K14" s="7">
-        <v>3905</v>
-      </c>
-      <c r="L14" s="7">
-        <v>3235</v>
-      </c>
-      <c r="M14" s="7">
-        <v>2623</v>
-      </c>
-      <c r="N14" s="7">
-        <v>4529</v>
-      </c>
-      <c r="O14" s="7">
-        <v>3590</v>
-      </c>
-      <c r="P14" s="7">
-        <v>2618</v>
-      </c>
-      <c r="Q14" s="29">
-        <v>3188</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="8">
-        <v>3684</v>
-      </c>
-      <c r="C15" s="7">
-        <v>3039</v>
-      </c>
-      <c r="D15" s="7">
-        <v>2552</v>
-      </c>
-      <c r="E15" s="7">
-        <v>3462</v>
-      </c>
-      <c r="F15" s="7">
-        <v>3270</v>
-      </c>
-      <c r="G15" s="7">
-        <v>3229</v>
-      </c>
-      <c r="H15" s="7">
-        <v>4183</v>
-      </c>
-      <c r="I15" s="7">
-        <v>3992</v>
-      </c>
-      <c r="J15" s="7">
-        <v>5510</v>
-      </c>
-      <c r="K15" s="7">
-        <v>5974</v>
-      </c>
-      <c r="L15" s="7">
-        <v>4550</v>
-      </c>
-      <c r="M15" s="7">
-        <v>3953</v>
-      </c>
-      <c r="N15" s="7">
-        <v>5409</v>
-      </c>
-      <c r="O15" s="7">
-        <v>4600</v>
-      </c>
-      <c r="P15" s="7">
-        <v>3652</v>
-      </c>
-      <c r="Q15" s="29">
-        <v>4215</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="8">
-        <v>6497</v>
-      </c>
-      <c r="C16" s="7">
-        <v>4778</v>
-      </c>
-      <c r="D16" s="7">
-        <v>4009</v>
-      </c>
-      <c r="E16" s="7">
-        <v>4532</v>
-      </c>
-      <c r="F16" s="7">
-        <v>4627</v>
-      </c>
-      <c r="G16" s="7">
-        <v>4226</v>
-      </c>
-      <c r="H16" s="7">
-        <v>4710</v>
-      </c>
-      <c r="I16" s="7">
-        <v>4096</v>
-      </c>
-      <c r="J16" s="7">
-        <v>5341</v>
-      </c>
-      <c r="K16" s="7">
-        <v>6085</v>
-      </c>
-      <c r="L16" s="7">
-        <v>5390</v>
-      </c>
-      <c r="M16" s="7">
-        <v>4364</v>
-      </c>
-      <c r="N16" s="7">
-        <v>6332</v>
-      </c>
-      <c r="O16" s="7">
-        <v>5696</v>
-      </c>
-      <c r="P16" s="7">
-        <v>4069</v>
-      </c>
-      <c r="Q16" s="29">
-        <v>5135</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="8">
-        <v>4123</v>
-      </c>
-      <c r="C17" s="7">
-        <v>3229</v>
-      </c>
-      <c r="D17" s="7">
-        <v>2646</v>
-      </c>
-      <c r="E17" s="7">
-        <v>3191</v>
-      </c>
-      <c r="F17" s="7">
-        <v>2921</v>
-      </c>
-      <c r="G17" s="7">
-        <v>3157</v>
-      </c>
-      <c r="H17" s="7">
-        <v>3302</v>
-      </c>
-      <c r="I17" s="7">
-        <v>3087</v>
-      </c>
-      <c r="J17" s="7">
-        <v>3861</v>
-      </c>
-      <c r="K17" s="7">
-        <v>4349</v>
-      </c>
-      <c r="L17" s="7">
-        <v>3855</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2981</v>
-      </c>
-      <c r="N17" s="7">
-        <v>4227</v>
-      </c>
-      <c r="O17" s="7">
-        <v>3965</v>
-      </c>
-      <c r="P17" s="7">
-        <v>3146</v>
-      </c>
-      <c r="Q17" s="29">
-        <v>3875</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="8">
-        <v>4626</v>
-      </c>
-      <c r="C18" s="7">
-        <v>3780</v>
-      </c>
-      <c r="D18" s="7">
-        <v>3445</v>
-      </c>
-      <c r="E18" s="7">
-        <v>3742</v>
-      </c>
-      <c r="F18" s="7">
-        <v>3800</v>
-      </c>
-      <c r="G18" s="7">
-        <v>3855</v>
-      </c>
-      <c r="H18" s="7">
-        <v>3987</v>
-      </c>
-      <c r="I18" s="7">
-        <v>4213</v>
-      </c>
-      <c r="J18" s="7">
-        <v>5316</v>
-      </c>
-      <c r="K18" s="7">
-        <v>5566</v>
-      </c>
-      <c r="L18" s="7">
-        <v>4763</v>
-      </c>
-      <c r="M18" s="7">
-        <v>4200</v>
-      </c>
-      <c r="N18" s="7">
-        <v>4999</v>
-      </c>
-      <c r="O18" s="7">
-        <v>4867</v>
-      </c>
-      <c r="P18" s="7">
-        <v>3900</v>
-      </c>
-      <c r="Q18" s="29">
-        <v>4875</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="8">
-        <v>3221</v>
-      </c>
-      <c r="C19" s="7">
-        <v>2560</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2388</v>
-      </c>
-      <c r="E19" s="7">
-        <v>2718</v>
-      </c>
-      <c r="F19" s="7">
-        <v>2866</v>
-      </c>
-      <c r="G19" s="7">
-        <v>3012</v>
-      </c>
-      <c r="H19" s="7">
-        <v>3259</v>
-      </c>
-      <c r="I19" s="7">
-        <v>3061</v>
-      </c>
-      <c r="J19" s="7">
-        <v>3615</v>
-      </c>
-      <c r="K19" s="7">
-        <v>4164</v>
-      </c>
-      <c r="L19" s="7">
-        <v>3914</v>
-      </c>
-      <c r="M19" s="7">
-        <v>3221</v>
-      </c>
-      <c r="N19" s="7">
-        <v>3639</v>
-      </c>
-      <c r="O19" s="7">
-        <v>3375</v>
-      </c>
-      <c r="P19" s="7">
-        <v>2584</v>
-      </c>
-      <c r="Q19" s="29">
-        <v>3523</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="8">
-        <v>3874</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2869</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2358</v>
-      </c>
-      <c r="E20" s="7">
-        <v>2685</v>
-      </c>
-      <c r="F20" s="7">
-        <v>2493</v>
-      </c>
-      <c r="G20" s="7">
-        <v>2237</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3342</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3015</v>
-      </c>
-      <c r="J20" s="7">
-        <v>3533</v>
-      </c>
-      <c r="K20" s="7">
-        <v>3949</v>
-      </c>
-      <c r="L20" s="7">
-        <v>3402</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2834</v>
-      </c>
-      <c r="N20" s="7">
-        <v>4061</v>
-      </c>
-      <c r="O20" s="7">
-        <v>3605</v>
-      </c>
-      <c r="P20" s="7">
-        <v>2719</v>
-      </c>
-      <c r="Q20" s="29">
-        <v>3192</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="8">
-        <v>5021</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3692</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3158</v>
-      </c>
-      <c r="E21" s="7">
-        <v>3771</v>
-      </c>
-      <c r="F21" s="7">
-        <v>3723</v>
-      </c>
-      <c r="G21" s="7">
-        <v>3887</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5340</v>
-      </c>
-      <c r="I21" s="7">
-        <v>5628</v>
-      </c>
-      <c r="J21" s="7">
-        <v>5248</v>
-      </c>
-      <c r="K21" s="7">
-        <v>5958</v>
-      </c>
-      <c r="L21" s="7">
-        <v>5181</v>
-      </c>
-      <c r="M21" s="7">
-        <v>4301</v>
-      </c>
-      <c r="N21" s="7">
-        <v>5818</v>
-      </c>
-      <c r="O21" s="7">
-        <v>4695</v>
-      </c>
-      <c r="P21" s="7">
-        <v>3347</v>
-      </c>
-      <c r="Q21" s="29">
-        <v>5056</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="8">
-        <v>3045</v>
-      </c>
-      <c r="C22" s="7">
-        <v>2586</v>
-      </c>
-      <c r="D22" s="8">
-        <v>2315</v>
-      </c>
-      <c r="E22" s="7">
-        <v>2602</v>
-      </c>
-      <c r="F22" s="7">
-        <v>2468</v>
-      </c>
-      <c r="G22" s="7">
-        <v>2439</v>
-      </c>
-      <c r="H22" s="7">
-        <v>2897</v>
-      </c>
-      <c r="I22" s="7">
-        <v>2642</v>
-      </c>
-      <c r="J22" s="7">
-        <v>3435</v>
-      </c>
-      <c r="K22" s="7">
-        <v>3640</v>
-      </c>
-      <c r="L22" s="7">
-        <v>2860</v>
-      </c>
-      <c r="M22" s="7">
-        <v>2453</v>
-      </c>
-      <c r="N22" s="7">
-        <v>3004</v>
-      </c>
-      <c r="O22" s="7">
-        <v>2873</v>
-      </c>
-      <c r="P22" s="7">
-        <v>2012</v>
-      </c>
-      <c r="Q22" s="29">
-        <v>2654</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="8">
-        <v>1738</v>
-      </c>
-      <c r="C23" s="7">
-        <v>1577</v>
-      </c>
-      <c r="D23" s="8">
-        <v>1520</v>
-      </c>
-      <c r="E23" s="7">
-        <v>2024</v>
-      </c>
-      <c r="F23" s="7">
-        <v>1466</v>
-      </c>
-      <c r="G23" s="7">
-        <v>1519</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1716</v>
-      </c>
-      <c r="I23" s="7">
-        <v>1647</v>
-      </c>
-      <c r="J23" s="7">
-        <v>2352</v>
-      </c>
-      <c r="K23" s="7">
-        <v>2471</v>
-      </c>
-      <c r="L23" s="7">
-        <v>2198</v>
-      </c>
-      <c r="M23" s="7">
-        <v>1643</v>
-      </c>
-      <c r="N23" s="7">
-        <v>1957</v>
-      </c>
-      <c r="O23" s="7">
-        <v>1946</v>
-      </c>
-      <c r="P23" s="7">
-        <v>1577</v>
-      </c>
-      <c r="Q23" s="29">
-        <v>1780</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="8">
-        <v>13886</v>
-      </c>
-      <c r="C24" s="7">
-        <v>10753</v>
-      </c>
-      <c r="D24" s="8">
-        <v>7983</v>
-      </c>
-      <c r="E24" s="7">
-        <v>9730</v>
-      </c>
-      <c r="F24" s="7">
-        <v>8742</v>
-      </c>
-      <c r="G24" s="7">
-        <v>8631</v>
-      </c>
-      <c r="H24" s="7">
-        <v>9936</v>
-      </c>
-      <c r="I24" s="7">
-        <v>9101</v>
-      </c>
-      <c r="J24" s="7">
-        <v>11659</v>
-      </c>
-      <c r="K24" s="7">
-        <v>13965</v>
-      </c>
-      <c r="L24" s="7">
-        <v>12260</v>
-      </c>
-      <c r="M24" s="7">
-        <v>9576</v>
-      </c>
-      <c r="N24" s="7">
-        <v>13965</v>
-      </c>
-      <c r="O24" s="7">
-        <v>13318</v>
-      </c>
-      <c r="P24" s="7">
-        <v>9350</v>
-      </c>
-      <c r="Q24" s="29">
-        <v>11286</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="8">
-        <v>878</v>
-      </c>
-      <c r="C25" s="7">
-        <v>712</v>
-      </c>
-      <c r="D25" s="8">
-        <v>726</v>
-      </c>
-      <c r="E25" s="7">
-        <v>937</v>
-      </c>
-      <c r="F25" s="7">
-        <v>787</v>
-      </c>
-      <c r="G25" s="7">
-        <v>809</v>
-      </c>
-      <c r="H25" s="7">
-        <v>782</v>
-      </c>
-      <c r="I25" s="7">
-        <v>845</v>
-      </c>
-      <c r="J25" s="7">
-        <v>1099</v>
-      </c>
-      <c r="K25" s="7">
-        <v>1123</v>
-      </c>
-      <c r="L25" s="7">
-        <v>1046</v>
-      </c>
-      <c r="M25" s="7">
-        <v>812</v>
-      </c>
-      <c r="N25" s="7">
-        <v>883</v>
-      </c>
-      <c r="O25" s="7">
-        <v>814</v>
-      </c>
-      <c r="P25" s="7">
-        <v>791</v>
-      </c>
-      <c r="Q25" s="29">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="8">
-        <v>2876</v>
-      </c>
-      <c r="C26" s="7">
-        <v>2459</v>
-      </c>
-      <c r="D26" s="8">
-        <v>2043</v>
-      </c>
-      <c r="E26" s="7">
-        <v>2352</v>
-      </c>
-      <c r="F26" s="7">
-        <v>2517</v>
-      </c>
-      <c r="G26" s="7">
-        <v>2420</v>
-      </c>
-      <c r="H26" s="7">
-        <v>2406</v>
-      </c>
-      <c r="I26" s="7">
-        <v>2233</v>
-      </c>
-      <c r="J26" s="7">
-        <v>3213</v>
-      </c>
-      <c r="K26" s="7">
-        <v>3406</v>
-      </c>
-      <c r="L26" s="7">
+      <c r="L12" s="31">
         <v>3014</v>
       </c>
-      <c r="M26" s="7">
+      <c r="M12" s="31">
         <v>2673</v>
       </c>
-      <c r="N26" s="7">
-        <v>2995</v>
-      </c>
-      <c r="O26" s="7">
-        <v>2777</v>
-      </c>
-      <c r="P26" s="7">
-        <v>2150</v>
-      </c>
-      <c r="Q26" s="29">
-        <v>2868</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" s="8">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="31">
         <v>22750</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C13" s="31">
         <v>19862</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D13" s="31">
         <v>19224</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E13" s="31">
         <v>19864</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F13" s="31">
         <v>19362</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G13" s="31">
         <v>21060</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H13" s="31">
         <v>23651</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I13" s="31">
         <v>22362</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J13" s="31">
         <v>27738</v>
       </c>
-      <c r="K27" s="7">
+      <c r="K13" s="31">
         <v>29376</v>
       </c>
-      <c r="L27" s="7">
+      <c r="L13" s="31">
         <v>24674</v>
       </c>
-      <c r="M27" s="7">
+      <c r="M13" s="31">
         <v>21772</v>
       </c>
-      <c r="N27" s="7">
-        <v>25792</v>
-      </c>
-      <c r="O27" s="7">
-        <v>23727</v>
-      </c>
-      <c r="P27" s="7">
-        <v>21696</v>
-      </c>
-      <c r="Q27" s="29">
-        <v>25434</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="8">
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="31">
         <v>20421</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C14" s="31">
         <v>17092</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D14" s="31">
         <v>14453</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E14" s="31">
         <v>17332</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F14" s="31">
         <v>17739</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G14" s="31">
         <v>17163</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H14" s="31">
         <v>18875</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I14" s="31">
         <v>19907</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J14" s="31">
         <v>21858</v>
       </c>
-      <c r="K28" s="7">
+      <c r="K14" s="31">
         <v>24429</v>
       </c>
-      <c r="L28" s="7">
+      <c r="L14" s="31">
         <v>23011</v>
       </c>
-      <c r="M28" s="7">
+      <c r="M14" s="31">
         <v>20026</v>
       </c>
-      <c r="N28" s="7">
-        <v>24702</v>
-      </c>
-      <c r="O28" s="7">
-        <v>22009</v>
-      </c>
-      <c r="P28" s="7">
-        <v>19566</v>
-      </c>
-      <c r="Q28" s="29">
-        <v>23022</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="20">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="32">
         <v>13793</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C15" s="32">
         <v>11259</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D15" s="31">
         <v>8545</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E15" s="31">
         <v>10702</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F15" s="31">
         <v>9924</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G15" s="31">
         <v>8661</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H15" s="31">
         <v>9943</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I15" s="31">
         <v>8791</v>
       </c>
-      <c r="J29" s="7">
+      <c r="J15" s="31">
         <v>10848</v>
       </c>
-      <c r="K29" s="7">
+      <c r="K15" s="31">
         <v>12708</v>
       </c>
-      <c r="L29" s="7">
+      <c r="L15" s="31">
         <v>13259</v>
       </c>
-      <c r="M29" s="7">
+      <c r="M15" s="31">
         <v>11222</v>
       </c>
-      <c r="N29" s="7">
-        <v>14703</v>
-      </c>
-      <c r="O29" s="7">
-        <v>12521</v>
-      </c>
-      <c r="P29" s="7">
-        <v>10753</v>
-      </c>
-      <c r="Q29" s="29">
-        <v>16516</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" s="22" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="35"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="8">
-        <v>93526</v>
-      </c>
-      <c r="C31" s="7">
-        <v>78476</v>
-      </c>
-      <c r="D31" s="8">
-        <v>67971</v>
-      </c>
-      <c r="E31" s="7">
-        <v>78674</v>
-      </c>
-      <c r="F31" s="7">
-        <v>77081</v>
-      </c>
-      <c r="G31" s="7">
-        <v>78357</v>
-      </c>
-      <c r="H31" s="7">
-        <v>89062</v>
-      </c>
-      <c r="I31" s="7">
-        <v>86649</v>
-      </c>
-      <c r="J31" s="7">
-        <v>102736</v>
-      </c>
-      <c r="K31" s="7">
-        <v>113042</v>
-      </c>
-      <c r="L31" s="7">
-        <v>101292</v>
-      </c>
-      <c r="M31" s="7">
-        <v>86576</v>
-      </c>
-      <c r="N31" s="7">
-        <v>108653</v>
-      </c>
-      <c r="O31" s="7">
-        <v>97782</v>
-      </c>
-      <c r="P31" s="7">
-        <v>83053</v>
-      </c>
-      <c r="Q31" s="29">
-        <v>103677</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="8">
-        <v>1520</v>
-      </c>
-      <c r="C32" s="7">
-        <v>1388</v>
-      </c>
-      <c r="D32" s="8">
-        <v>1112</v>
-      </c>
-      <c r="E32" s="7">
-        <v>1396</v>
-      </c>
-      <c r="F32" s="7">
-        <v>1191</v>
-      </c>
-      <c r="G32" s="7">
-        <v>1366</v>
-      </c>
-      <c r="H32" s="7">
-        <v>1540</v>
-      </c>
-      <c r="I32" s="7">
-        <v>1347</v>
-      </c>
-      <c r="J32" s="7">
-        <v>1928</v>
-      </c>
-      <c r="K32" s="7">
-        <v>2173</v>
-      </c>
-      <c r="L32" s="7">
-        <v>1989</v>
-      </c>
-      <c r="M32" s="7">
-        <v>1655</v>
-      </c>
-      <c r="N32" s="7">
-        <v>1911</v>
-      </c>
-      <c r="O32" s="7">
-        <v>1692</v>
-      </c>
-      <c r="P32" s="7">
-        <v>1275</v>
-      </c>
-      <c r="Q32" s="29">
-        <v>1490</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="8">
-        <v>2283</v>
-      </c>
-      <c r="C33" s="7">
-        <v>2130</v>
-      </c>
-      <c r="D33" s="8">
-        <v>1810</v>
-      </c>
-      <c r="E33" s="7">
-        <v>2063</v>
-      </c>
-      <c r="F33" s="7">
-        <v>2220</v>
-      </c>
-      <c r="G33" s="7">
-        <v>2319</v>
-      </c>
-      <c r="H33" s="7">
-        <v>2415</v>
-      </c>
-      <c r="I33" s="7">
-        <v>2156</v>
-      </c>
-      <c r="J33" s="7">
-        <v>2731</v>
-      </c>
-      <c r="K33" s="7">
-        <v>2815</v>
-      </c>
-      <c r="L33" s="7">
-        <v>2618</v>
-      </c>
-      <c r="M33" s="7">
-        <v>2294</v>
-      </c>
-      <c r="N33" s="7">
-        <v>2900</v>
-      </c>
-      <c r="O33" s="7">
-        <v>2876</v>
-      </c>
-      <c r="P33" s="7">
-        <v>2287</v>
-      </c>
-      <c r="Q33" s="29">
-        <v>2920</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="8">
-        <v>3359</v>
-      </c>
-      <c r="C34" s="7">
-        <v>2950</v>
-      </c>
-      <c r="D34" s="8">
-        <v>2752</v>
-      </c>
-      <c r="E34" s="7">
-        <v>3468</v>
-      </c>
-      <c r="F34" s="7">
-        <v>3219</v>
-      </c>
-      <c r="G34" s="7">
-        <v>3640</v>
-      </c>
-      <c r="H34" s="7">
-        <v>4489</v>
-      </c>
-      <c r="I34" s="7">
-        <v>4422</v>
-      </c>
-      <c r="J34" s="7">
-        <v>5390</v>
-      </c>
-      <c r="K34" s="7">
-        <v>5605</v>
-      </c>
-      <c r="L34" s="7">
-        <v>4679</v>
-      </c>
-      <c r="M34" s="7">
-        <v>3746</v>
-      </c>
-      <c r="N34" s="7">
-        <v>4712</v>
-      </c>
-      <c r="O34" s="7">
-        <v>4057</v>
-      </c>
-      <c r="P34" s="7">
-        <v>3298</v>
-      </c>
-      <c r="Q34" s="29">
-        <v>4083</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="8">
-        <v>1829</v>
-      </c>
-      <c r="C35" s="7">
-        <v>1750</v>
-      </c>
-      <c r="D35" s="8">
-        <v>1274</v>
-      </c>
-      <c r="E35" s="7">
-        <v>1482</v>
-      </c>
-      <c r="F35" s="7">
-        <v>1668</v>
-      </c>
-      <c r="G35" s="7">
-        <v>1494</v>
-      </c>
-      <c r="H35" s="7">
-        <v>1916</v>
-      </c>
-      <c r="I35" s="7">
-        <v>1871</v>
-      </c>
-      <c r="J35" s="7">
-        <v>2450</v>
-      </c>
-      <c r="K35" s="7">
-        <v>2946</v>
-      </c>
-      <c r="L35" s="7">
-        <v>2637</v>
-      </c>
-      <c r="M35" s="7">
-        <v>2065</v>
-      </c>
-      <c r="N35" s="7">
-        <v>2700</v>
-      </c>
-      <c r="O35" s="7">
-        <v>2878</v>
-      </c>
-      <c r="P35" s="7">
-        <v>2223</v>
-      </c>
-      <c r="Q35" s="29">
-        <v>2864</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" s="8">
-        <v>1641</v>
-      </c>
-      <c r="C36" s="7">
-        <v>1224</v>
-      </c>
-      <c r="D36" s="8">
-        <v>1040</v>
-      </c>
-      <c r="E36" s="7">
-        <v>1519</v>
-      </c>
-      <c r="F36" s="7">
-        <v>1516</v>
-      </c>
-      <c r="G36" s="7">
-        <v>1600</v>
-      </c>
-      <c r="H36" s="7">
-        <v>1877</v>
-      </c>
-      <c r="I36" s="7">
-        <v>1971</v>
-      </c>
-      <c r="J36" s="7">
-        <v>1495</v>
-      </c>
-      <c r="K36" s="7">
-        <v>1887</v>
-      </c>
-      <c r="L36" s="7">
-        <v>1614</v>
-      </c>
-      <c r="M36" s="7">
-        <v>1313</v>
-      </c>
-      <c r="N36" s="7">
-        <v>1982</v>
-      </c>
-      <c r="O36" s="7">
-        <v>1616</v>
-      </c>
-      <c r="P36" s="7">
-        <v>1405</v>
-      </c>
-      <c r="Q36" s="29">
-        <v>1702</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" s="8">
-        <v>2448</v>
-      </c>
-      <c r="C37" s="7">
-        <v>1963</v>
-      </c>
-      <c r="D37" s="8">
-        <v>1628</v>
-      </c>
-      <c r="E37" s="7">
-        <v>2333</v>
-      </c>
-      <c r="F37" s="7">
-        <v>2111</v>
-      </c>
-      <c r="G37" s="7">
-        <v>2156</v>
-      </c>
-      <c r="H37" s="7">
-        <v>2822</v>
-      </c>
-      <c r="I37" s="7">
-        <v>2718</v>
-      </c>
-      <c r="J37" s="7">
-        <v>3621</v>
-      </c>
-      <c r="K37" s="7">
-        <v>3929</v>
-      </c>
-      <c r="L37" s="7">
-        <v>3117</v>
-      </c>
-      <c r="M37" s="7">
-        <v>2686</v>
-      </c>
-      <c r="N37" s="7">
-        <v>3595</v>
-      </c>
-      <c r="O37" s="7">
-        <v>3019</v>
-      </c>
-      <c r="P37" s="7">
-        <v>2443</v>
-      </c>
-      <c r="Q37" s="29">
-        <v>2784</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" s="8">
-        <v>2732</v>
-      </c>
-      <c r="C38" s="7">
-        <v>2053</v>
-      </c>
-      <c r="D38" s="8">
-        <v>1788</v>
-      </c>
-      <c r="E38" s="7">
-        <v>2095</v>
-      </c>
-      <c r="F38" s="7">
-        <v>1821</v>
-      </c>
-      <c r="G38" s="7">
-        <v>1889</v>
-      </c>
-      <c r="H38" s="7">
-        <v>2211</v>
-      </c>
-      <c r="I38" s="7">
-        <v>1908</v>
-      </c>
-      <c r="J38" s="7">
-        <v>2353</v>
-      </c>
-      <c r="K38" s="7">
-        <v>2689</v>
-      </c>
-      <c r="L38" s="7">
-        <v>2274</v>
-      </c>
-      <c r="M38" s="7">
-        <v>1918</v>
-      </c>
-      <c r="N38" s="7">
-        <v>2916</v>
-      </c>
-      <c r="O38" s="7">
-        <v>2585</v>
-      </c>
-      <c r="P38" s="7">
-        <v>1932</v>
-      </c>
-      <c r="Q38" s="29">
-        <v>2378</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39" s="8">
-        <v>1839</v>
-      </c>
-      <c r="C39" s="7">
-        <v>1413</v>
-      </c>
-      <c r="D39" s="8">
-        <v>1185</v>
-      </c>
-      <c r="E39" s="7">
-        <v>1445</v>
-      </c>
-      <c r="F39" s="7">
-        <v>1385</v>
-      </c>
-      <c r="G39" s="7">
-        <v>1545</v>
-      </c>
-      <c r="H39" s="7">
-        <v>1635</v>
-      </c>
-      <c r="I39" s="7">
-        <v>1473</v>
-      </c>
-      <c r="J39" s="7">
-        <v>1846</v>
-      </c>
-      <c r="K39" s="7">
-        <v>1867</v>
-      </c>
-      <c r="L39" s="7">
-        <v>1793</v>
-      </c>
-      <c r="M39" s="7">
-        <v>1383</v>
-      </c>
-      <c r="N39" s="7">
-        <v>1880</v>
-      </c>
-      <c r="O39" s="7">
-        <v>1816</v>
-      </c>
-      <c r="P39" s="7">
-        <v>1437</v>
-      </c>
-      <c r="Q39" s="29">
-        <v>1657</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B40" s="8">
-        <v>3722</v>
-      </c>
-      <c r="C40" s="7">
-        <v>3021</v>
-      </c>
-      <c r="D40" s="8">
-        <v>2819</v>
-      </c>
-      <c r="E40" s="7">
-        <v>3034</v>
-      </c>
-      <c r="F40" s="7">
-        <v>2995</v>
-      </c>
-      <c r="G40" s="7">
-        <v>3257</v>
-      </c>
-      <c r="H40" s="7">
-        <v>3336</v>
-      </c>
-      <c r="I40" s="7">
-        <v>3477</v>
-      </c>
-      <c r="J40" s="7">
-        <v>4254</v>
-      </c>
-      <c r="K40" s="7">
-        <v>4528</v>
-      </c>
-      <c r="L40" s="7">
-        <v>3957</v>
-      </c>
-      <c r="M40" s="7">
-        <v>3398</v>
-      </c>
-      <c r="N40" s="7">
-        <v>4064</v>
-      </c>
-      <c r="O40" s="7">
-        <v>4005</v>
-      </c>
-      <c r="P40" s="7">
-        <v>3175</v>
-      </c>
-      <c r="Q40" s="29">
-        <v>4041</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B41" s="8">
-        <v>1994</v>
-      </c>
-      <c r="C41" s="7">
-        <v>1624</v>
-      </c>
-      <c r="D41" s="8">
-        <v>1444</v>
-      </c>
-      <c r="E41" s="7">
-        <v>1618</v>
-      </c>
-      <c r="F41" s="7">
-        <v>1751</v>
-      </c>
-      <c r="G41" s="7">
-        <v>1882</v>
-      </c>
-      <c r="H41" s="7">
-        <v>2094</v>
-      </c>
-      <c r="I41" s="7">
-        <v>1906</v>
-      </c>
-      <c r="J41" s="7">
-        <v>2260</v>
-      </c>
-      <c r="K41" s="7">
-        <v>2573</v>
-      </c>
-      <c r="L41" s="7">
-        <v>2378</v>
-      </c>
-      <c r="M41" s="7">
-        <v>2118</v>
-      </c>
-      <c r="N41" s="7">
-        <v>2372</v>
-      </c>
-      <c r="O41" s="7">
-        <v>2088</v>
-      </c>
-      <c r="P41" s="7">
-        <v>1695</v>
-      </c>
-      <c r="Q41" s="29">
-        <v>2227</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B42" s="8">
-        <v>1898</v>
-      </c>
-      <c r="C42" s="7">
-        <v>1504</v>
-      </c>
-      <c r="D42" s="8">
-        <v>1270</v>
-      </c>
-      <c r="E42" s="7">
-        <v>1258</v>
-      </c>
-      <c r="F42" s="7">
-        <v>1239</v>
-      </c>
-      <c r="G42" s="7">
-        <v>1088</v>
-      </c>
-      <c r="H42" s="7">
-        <v>1690</v>
-      </c>
-      <c r="I42" s="7">
-        <v>1596</v>
-      </c>
-      <c r="J42" s="7">
-        <v>1801</v>
-      </c>
-      <c r="K42" s="7">
-        <v>2001</v>
-      </c>
-      <c r="L42" s="7">
-        <v>1671</v>
-      </c>
-      <c r="M42" s="7">
-        <v>1442</v>
-      </c>
-      <c r="N42" s="7">
-        <v>2067</v>
-      </c>
-      <c r="O42" s="7">
-        <v>1813</v>
-      </c>
-      <c r="P42" s="7">
-        <v>1366</v>
-      </c>
-      <c r="Q42" s="29">
-        <v>1590</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B43" s="8">
-        <v>2546</v>
-      </c>
-      <c r="C43" s="7">
-        <v>1852</v>
-      </c>
-      <c r="D43" s="8">
-        <v>1633</v>
-      </c>
-      <c r="E43" s="7">
-        <v>1894</v>
-      </c>
-      <c r="F43" s="7">
-        <v>2123</v>
-      </c>
-      <c r="G43" s="7">
-        <v>2223</v>
-      </c>
-      <c r="H43" s="7">
-        <v>2781</v>
-      </c>
-      <c r="I43" s="7">
-        <v>3214</v>
-      </c>
-      <c r="J43" s="7">
-        <v>2764</v>
-      </c>
-      <c r="K43" s="7">
-        <v>2929</v>
-      </c>
-      <c r="L43" s="7">
-        <v>2667</v>
-      </c>
-      <c r="M43" s="7">
-        <v>2250</v>
-      </c>
-      <c r="N43" s="7">
-        <v>3044</v>
-      </c>
-      <c r="O43" s="7">
-        <v>2494</v>
-      </c>
-      <c r="P43" s="7">
-        <v>1810</v>
-      </c>
-      <c r="Q43" s="29">
-        <v>2815</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B44" s="8">
-        <v>1776</v>
-      </c>
-      <c r="C44" s="7">
-        <v>1614</v>
-      </c>
-      <c r="D44" s="8">
-        <v>1378</v>
-      </c>
-      <c r="E44" s="7">
-        <v>1568</v>
-      </c>
-      <c r="F44" s="7">
-        <v>1443</v>
-      </c>
-      <c r="G44" s="7">
-        <v>1559</v>
-      </c>
-      <c r="H44" s="7">
-        <v>1834</v>
-      </c>
-      <c r="I44" s="7">
-        <v>1719</v>
-      </c>
-      <c r="J44" s="7">
-        <v>2146</v>
-      </c>
-      <c r="K44" s="7">
-        <v>2410</v>
-      </c>
-      <c r="L44" s="7">
-        <v>1852</v>
-      </c>
-      <c r="M44" s="7">
-        <v>1578</v>
-      </c>
-      <c r="N44" s="7">
-        <v>1862</v>
-      </c>
-      <c r="O44" s="7">
-        <v>1853</v>
-      </c>
-      <c r="P44" s="7">
-        <v>1270</v>
-      </c>
-      <c r="Q44" s="29">
-        <v>1710</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B45" s="8">
-        <v>740</v>
-      </c>
-      <c r="C45" s="7">
-        <v>720</v>
-      </c>
-      <c r="D45" s="8">
-        <v>634</v>
-      </c>
-      <c r="E45" s="7">
-        <v>727</v>
-      </c>
-      <c r="F45" s="7">
-        <v>611</v>
-      </c>
-      <c r="G45" s="7">
-        <v>641</v>
-      </c>
-      <c r="H45" s="7">
-        <v>819</v>
-      </c>
-      <c r="I45" s="7">
-        <v>753</v>
-      </c>
-      <c r="J45" s="7">
-        <v>1009</v>
-      </c>
-      <c r="K45" s="7">
-        <v>1113</v>
-      </c>
-      <c r="L45" s="7">
-        <v>996</v>
-      </c>
-      <c r="M45" s="7">
-        <v>737</v>
-      </c>
-      <c r="N45" s="7">
-        <v>863</v>
-      </c>
-      <c r="O45" s="7">
-        <v>835</v>
-      </c>
-      <c r="P45" s="7">
-        <v>771</v>
-      </c>
-      <c r="Q45" s="29">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B46" s="8">
-        <v>3922</v>
-      </c>
-      <c r="C46" s="7">
-        <v>3074</v>
-      </c>
-      <c r="D46" s="8">
-        <v>2199</v>
-      </c>
-      <c r="E46" s="7">
-        <v>2750</v>
-      </c>
-      <c r="F46" s="7">
-        <v>2625</v>
-      </c>
-      <c r="G46" s="7">
-        <v>2613</v>
-      </c>
-      <c r="H46" s="7">
-        <v>3006</v>
-      </c>
-      <c r="I46" s="7">
-        <v>3015</v>
-      </c>
-      <c r="J46" s="7">
-        <v>3561</v>
-      </c>
-      <c r="K46" s="7">
-        <v>4126</v>
-      </c>
-      <c r="L46" s="7">
-        <v>3407</v>
-      </c>
-      <c r="M46" s="7">
-        <v>2632</v>
-      </c>
-      <c r="N46" s="7">
-        <v>4053</v>
-      </c>
-      <c r="O46" s="7">
-        <v>3640</v>
-      </c>
-      <c r="P46" s="7">
-        <v>2718</v>
-      </c>
-      <c r="Q46" s="29">
-        <v>3171</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B47" s="8">
-        <v>698</v>
-      </c>
-      <c r="C47" s="7">
-        <v>541</v>
-      </c>
-      <c r="D47" s="8">
-        <v>553</v>
-      </c>
-      <c r="E47" s="7">
-        <v>746</v>
-      </c>
-      <c r="F47" s="7">
-        <v>617</v>
-      </c>
-      <c r="G47" s="7">
-        <v>651</v>
-      </c>
-      <c r="H47" s="7">
-        <v>595</v>
-      </c>
-      <c r="I47" s="7">
-        <v>630</v>
-      </c>
-      <c r="J47" s="7">
-        <v>709</v>
-      </c>
-      <c r="K47" s="7">
-        <v>816</v>
-      </c>
-      <c r="L47" s="7">
-        <v>820</v>
-      </c>
-      <c r="M47" s="7">
-        <v>668</v>
-      </c>
-      <c r="N47" s="7">
-        <v>669</v>
-      </c>
-      <c r="O47" s="7">
-        <v>603</v>
-      </c>
-      <c r="P47" s="7">
-        <v>566</v>
-      </c>
-      <c r="Q47" s="29">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B48" s="8">
-        <v>1615</v>
-      </c>
-      <c r="C48" s="7">
-        <v>1442</v>
-      </c>
-      <c r="D48" s="8">
-        <v>1230</v>
-      </c>
-      <c r="E48" s="7">
-        <v>1380</v>
-      </c>
-      <c r="F48" s="7">
-        <v>1521</v>
-      </c>
-      <c r="G48" s="7">
-        <v>1550</v>
-      </c>
-      <c r="H48" s="7">
-        <v>1533</v>
-      </c>
-      <c r="I48" s="7">
-        <v>1413</v>
-      </c>
-      <c r="J48" s="7">
-        <v>1974</v>
-      </c>
-      <c r="K48" s="7">
-        <v>2122</v>
-      </c>
-      <c r="L48" s="7">
-        <v>1879</v>
-      </c>
-      <c r="M48" s="7">
-        <v>1673</v>
-      </c>
-      <c r="N48" s="7">
-        <v>1866</v>
-      </c>
-      <c r="O48" s="7">
-        <v>1655</v>
-      </c>
-      <c r="P48" s="7">
-        <v>1367</v>
-      </c>
-      <c r="Q48" s="29">
-        <v>1782</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B49" s="8">
-        <v>22750</v>
-      </c>
-      <c r="C49" s="7">
-        <v>19862</v>
-      </c>
-      <c r="D49" s="8">
-        <v>19224</v>
-      </c>
-      <c r="E49" s="7">
-        <v>19864</v>
-      </c>
-      <c r="F49" s="7">
-        <v>19362</v>
-      </c>
-      <c r="G49" s="7">
-        <v>21060</v>
-      </c>
-      <c r="H49" s="7">
-        <v>23651</v>
-      </c>
-      <c r="I49" s="7">
-        <v>22362</v>
-      </c>
-      <c r="J49" s="7">
-        <v>27738</v>
-      </c>
-      <c r="K49" s="7">
-        <v>29376</v>
-      </c>
-      <c r="L49" s="7">
-        <v>24674</v>
-      </c>
-      <c r="M49" s="7">
-        <v>21772</v>
-      </c>
-      <c r="N49" s="7">
-        <v>25792</v>
-      </c>
-      <c r="O49" s="7">
-        <v>23727</v>
-      </c>
-      <c r="P49" s="7">
-        <v>21696</v>
-      </c>
-      <c r="Q49" s="29">
-        <v>25434</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B50" s="20">
-        <v>20421</v>
-      </c>
-      <c r="C50" s="19">
-        <v>17092</v>
-      </c>
-      <c r="D50" s="8">
-        <v>14453</v>
-      </c>
-      <c r="E50" s="7">
-        <v>17332</v>
-      </c>
-      <c r="F50" s="7">
-        <v>17739</v>
-      </c>
-      <c r="G50" s="7">
-        <v>17163</v>
-      </c>
-      <c r="H50" s="7">
-        <v>18875</v>
-      </c>
-      <c r="I50" s="7">
-        <v>19907</v>
-      </c>
-      <c r="J50" s="7">
-        <v>21858</v>
-      </c>
-      <c r="K50" s="7">
-        <v>24429</v>
-      </c>
-      <c r="L50" s="7">
-        <v>23011</v>
-      </c>
-      <c r="M50" s="7">
-        <v>20026</v>
-      </c>
-      <c r="N50" s="7">
-        <v>24702</v>
-      </c>
-      <c r="O50" s="7">
-        <v>22009</v>
-      </c>
-      <c r="P50" s="7">
-        <v>19566</v>
-      </c>
-      <c r="Q50" s="29">
-        <v>23022</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B51" s="8">
-        <v>13793</v>
-      </c>
-      <c r="C51" s="8">
-        <v>11259</v>
-      </c>
-      <c r="D51" s="8">
-        <v>8545</v>
-      </c>
-      <c r="E51" s="8">
-        <v>10702</v>
-      </c>
-      <c r="F51" s="8">
-        <v>9924</v>
-      </c>
-      <c r="G51" s="8">
-        <v>8661</v>
-      </c>
-      <c r="H51" s="7">
-        <v>9943</v>
-      </c>
-      <c r="I51" s="7">
-        <v>8791</v>
-      </c>
-      <c r="J51" s="7">
-        <v>10848</v>
-      </c>
-      <c r="K51" s="7">
-        <v>12708</v>
-      </c>
-      <c r="L51" s="7">
-        <v>13259</v>
-      </c>
-      <c r="M51" s="7">
-        <v>11222</v>
-      </c>
-      <c r="N51" s="7">
-        <v>14703</v>
-      </c>
-      <c r="O51" s="7">
-        <v>12521</v>
-      </c>
-      <c r="P51" s="7">
-        <v>10753</v>
-      </c>
-      <c r="Q51" s="29">
-        <v>16516</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" s="22" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="B52" s="36"/>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
-      <c r="N52" s="36"/>
-      <c r="O52" s="36"/>
-      <c r="P52" s="36"/>
-      <c r="Q52" s="36"/>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B53" s="8">
-        <v>45874</v>
-      </c>
-      <c r="C53" s="7">
-        <v>36503</v>
-      </c>
-      <c r="D53" s="8">
-        <v>30408</v>
-      </c>
-      <c r="E53" s="7">
-        <v>35928</v>
-      </c>
-      <c r="F53" s="7">
-        <v>33903</v>
-      </c>
-      <c r="G53" s="7">
-        <v>31696</v>
-      </c>
-      <c r="H53" s="7">
-        <v>35773</v>
-      </c>
-      <c r="I53" s="7">
-        <v>33230</v>
-      </c>
-      <c r="J53" s="7">
-        <v>44244</v>
-      </c>
-      <c r="K53" s="7">
-        <v>50206</v>
-      </c>
-      <c r="L53" s="7">
-        <v>43715</v>
-      </c>
-      <c r="M53" s="7">
-        <v>35415</v>
-      </c>
-      <c r="N53" s="7">
-        <v>48825</v>
-      </c>
-      <c r="O53" s="7">
-        <v>45560</v>
-      </c>
-      <c r="P53" s="7">
-        <v>33700</v>
-      </c>
-      <c r="Q53" s="29">
-        <v>42571</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B54" s="8">
-        <v>1116</v>
-      </c>
-      <c r="C54" s="7">
-        <v>882</v>
-      </c>
-      <c r="D54" s="8">
-        <v>673</v>
-      </c>
-      <c r="E54" s="7">
-        <v>778</v>
-      </c>
-      <c r="F54" s="7">
-        <v>751</v>
-      </c>
-      <c r="G54" s="7">
-        <v>771</v>
-      </c>
-      <c r="H54" s="7">
-        <v>799</v>
-      </c>
-      <c r="I54" s="7">
-        <v>749</v>
-      </c>
-      <c r="J54" s="7">
-        <v>1149</v>
-      </c>
-      <c r="K54" s="7">
-        <v>1139</v>
-      </c>
-      <c r="L54" s="7">
-        <v>1142</v>
-      </c>
-      <c r="M54" s="7">
-        <v>823</v>
-      </c>
-      <c r="N54" s="7">
-        <v>1303</v>
-      </c>
-      <c r="O54" s="7">
-        <v>1012</v>
-      </c>
-      <c r="P54" s="7">
-        <v>784</v>
-      </c>
-      <c r="Q54" s="29">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B55" s="8">
-        <v>1926</v>
-      </c>
-      <c r="C55" s="7">
-        <v>1577</v>
-      </c>
-      <c r="D55" s="8">
-        <v>2034</v>
-      </c>
-      <c r="E55" s="7">
-        <v>1604</v>
-      </c>
-      <c r="F55" s="7">
-        <v>1626</v>
-      </c>
-      <c r="G55" s="7">
-        <v>1740</v>
-      </c>
-      <c r="H55" s="7">
-        <v>1719</v>
-      </c>
-      <c r="I55" s="7">
-        <v>1676</v>
-      </c>
-      <c r="J55" s="7">
-        <v>2141</v>
-      </c>
-      <c r="K55" s="7">
-        <v>2511</v>
-      </c>
-      <c r="L55" s="7">
-        <v>2122</v>
-      </c>
-      <c r="M55" s="7">
-        <v>1637</v>
-      </c>
-      <c r="N55" s="7">
-        <v>2128</v>
-      </c>
-      <c r="O55" s="7">
-        <v>2200</v>
-      </c>
-      <c r="P55" s="7">
-        <v>1727</v>
-      </c>
-      <c r="Q55" s="29">
-        <v>2156</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B56" s="8">
-        <v>982</v>
-      </c>
-      <c r="C56" s="7">
-        <v>765</v>
-      </c>
-      <c r="D56" s="8">
-        <v>654</v>
-      </c>
-      <c r="E56" s="7">
-        <v>791</v>
-      </c>
-      <c r="F56" s="7">
-        <v>838</v>
-      </c>
-      <c r="G56" s="7">
-        <v>862</v>
-      </c>
-      <c r="H56" s="7">
-        <v>1137</v>
-      </c>
-      <c r="I56" s="7">
-        <v>1083</v>
-      </c>
-      <c r="J56" s="7">
-        <v>1378</v>
-      </c>
-      <c r="K56" s="7">
-        <v>1196</v>
-      </c>
-      <c r="L56" s="7">
-        <v>971</v>
-      </c>
-      <c r="M56" s="7">
-        <v>702</v>
-      </c>
-      <c r="N56" s="7">
-        <v>1155</v>
-      </c>
-      <c r="O56" s="7">
-        <v>1043</v>
-      </c>
-      <c r="P56" s="7">
-        <v>814</v>
-      </c>
-      <c r="Q56" s="29">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B57" s="8">
-        <v>12039</v>
-      </c>
-      <c r="C57" s="7">
-        <v>10297</v>
-      </c>
-      <c r="D57" s="8">
-        <v>8324</v>
-      </c>
-      <c r="E57" s="7">
-        <v>10062</v>
-      </c>
-      <c r="F57" s="7">
-        <v>9742</v>
-      </c>
-      <c r="G57" s="7">
-        <v>8500</v>
-      </c>
-      <c r="H57" s="7">
-        <v>8812</v>
-      </c>
-      <c r="I57" s="7">
-        <v>8436</v>
-      </c>
-      <c r="J57" s="7">
-        <v>12018</v>
-      </c>
-      <c r="K57" s="7">
-        <v>13795</v>
-      </c>
-      <c r="L57" s="7">
-        <v>12237</v>
-      </c>
-      <c r="M57" s="7">
-        <v>10415</v>
-      </c>
-      <c r="N57" s="7">
-        <v>13654</v>
-      </c>
-      <c r="O57" s="7">
-        <v>13206</v>
-      </c>
-      <c r="P57" s="7">
-        <v>10415</v>
-      </c>
-      <c r="Q57" s="29">
-        <v>13450</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B58" s="8">
-        <v>2272</v>
-      </c>
-      <c r="C58" s="7">
-        <v>1769</v>
-      </c>
-      <c r="D58" s="8">
-        <v>1341</v>
-      </c>
-      <c r="E58" s="7">
-        <v>1795</v>
-      </c>
-      <c r="F58" s="7">
-        <v>1508</v>
-      </c>
-      <c r="G58" s="7">
-        <v>1456</v>
-      </c>
-      <c r="H58" s="7">
-        <v>1802</v>
-      </c>
-      <c r="I58" s="7">
-        <v>1548</v>
-      </c>
-      <c r="J58" s="7">
-        <v>1674</v>
-      </c>
-      <c r="K58" s="7">
-        <v>2018</v>
-      </c>
-      <c r="L58" s="7">
-        <v>1621</v>
-      </c>
-      <c r="M58" s="7">
-        <v>1310</v>
-      </c>
-      <c r="N58" s="7">
-        <v>2547</v>
-      </c>
-      <c r="O58" s="7">
-        <v>1974</v>
-      </c>
-      <c r="P58" s="7">
-        <v>1213</v>
-      </c>
-      <c r="Q58" s="29">
-        <v>1486</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B59" s="8">
-        <v>1236</v>
-      </c>
-      <c r="C59" s="7">
-        <v>1076</v>
-      </c>
-      <c r="D59" s="7">
-        <v>924</v>
-      </c>
-      <c r="E59" s="7">
-        <v>1129</v>
-      </c>
-      <c r="F59" s="7">
-        <v>1159</v>
-      </c>
-      <c r="G59" s="7">
-        <v>1073</v>
-      </c>
-      <c r="H59" s="7">
-        <v>1361</v>
-      </c>
-      <c r="I59" s="7">
-        <v>1274</v>
-      </c>
-      <c r="J59" s="7">
-        <v>1889</v>
-      </c>
-      <c r="K59" s="7">
-        <v>2045</v>
-      </c>
-      <c r="L59" s="7">
-        <v>1433</v>
-      </c>
-      <c r="M59" s="7">
-        <v>1267</v>
-      </c>
-      <c r="N59" s="7">
-        <v>1814</v>
-      </c>
-      <c r="O59" s="7">
-        <v>1581</v>
-      </c>
-      <c r="P59" s="7">
-        <v>1209</v>
-      </c>
-      <c r="Q59" s="29">
-        <v>1431</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B60" s="8">
-        <v>3765</v>
-      </c>
-      <c r="C60" s="7">
-        <v>2725</v>
-      </c>
-      <c r="D60" s="7">
-        <v>2221</v>
-      </c>
-      <c r="E60" s="7">
-        <v>2437</v>
-      </c>
-      <c r="F60" s="7">
-        <v>2806</v>
-      </c>
-      <c r="G60" s="7">
-        <v>2337</v>
-      </c>
-      <c r="H60" s="7">
-        <v>2499</v>
-      </c>
-      <c r="I60" s="7">
-        <v>2188</v>
-      </c>
-      <c r="J60" s="7">
-        <v>2988</v>
-      </c>
-      <c r="K60" s="7">
-        <v>3396</v>
-      </c>
-      <c r="L60" s="7">
-        <v>3116</v>
-      </c>
-      <c r="M60" s="7">
-        <v>2446</v>
-      </c>
-      <c r="N60" s="7">
-        <v>3416</v>
-      </c>
-      <c r="O60" s="7">
-        <v>3111</v>
-      </c>
-      <c r="P60" s="7">
-        <v>2137</v>
-      </c>
-      <c r="Q60" s="29">
-        <v>2757</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B61" s="8">
-        <v>2284</v>
-      </c>
-      <c r="C61" s="7">
-        <v>1816</v>
-      </c>
-      <c r="D61" s="7">
-        <v>1461</v>
-      </c>
-      <c r="E61" s="7">
-        <v>1746</v>
-      </c>
-      <c r="F61" s="7">
-        <v>1536</v>
-      </c>
-      <c r="G61" s="7">
-        <v>1612</v>
-      </c>
-      <c r="H61" s="7">
-        <v>1667</v>
-      </c>
-      <c r="I61" s="7">
-        <v>1614</v>
-      </c>
-      <c r="J61" s="7">
-        <v>2015</v>
-      </c>
-      <c r="K61" s="7">
-        <v>2482</v>
-      </c>
-      <c r="L61" s="7">
-        <v>2062</v>
-      </c>
-      <c r="M61" s="7">
-        <v>1598</v>
-      </c>
-      <c r="N61" s="7">
-        <v>2347</v>
-      </c>
-      <c r="O61" s="7">
-        <v>2149</v>
-      </c>
-      <c r="P61" s="7">
-        <v>1709</v>
-      </c>
-      <c r="Q61" s="29">
-        <v>2218</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B62" s="8">
-        <v>904</v>
-      </c>
-      <c r="C62" s="7">
-        <v>759</v>
-      </c>
-      <c r="D62" s="7">
-        <v>626</v>
-      </c>
-      <c r="E62" s="7">
-        <v>708</v>
-      </c>
-      <c r="F62" s="7">
-        <v>805</v>
-      </c>
-      <c r="G62" s="7">
-        <v>598</v>
-      </c>
-      <c r="H62" s="7">
-        <v>651</v>
-      </c>
-      <c r="I62" s="7">
-        <v>736</v>
-      </c>
-      <c r="J62" s="7">
-        <v>1062</v>
-      </c>
-      <c r="K62" s="7">
-        <v>1038</v>
-      </c>
-      <c r="L62" s="7">
-        <v>806</v>
-      </c>
-      <c r="M62" s="7">
-        <v>802</v>
-      </c>
-      <c r="N62" s="7">
-        <v>935</v>
-      </c>
-      <c r="O62" s="7">
-        <v>862</v>
-      </c>
-      <c r="P62" s="7">
-        <v>725</v>
-      </c>
-      <c r="Q62" s="29">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B63" s="8">
-        <v>1227</v>
-      </c>
-      <c r="C63" s="7">
-        <v>936</v>
-      </c>
-      <c r="D63" s="7">
-        <v>944</v>
-      </c>
-      <c r="E63" s="7">
-        <v>1100</v>
-      </c>
-      <c r="F63" s="7">
-        <v>1115</v>
-      </c>
-      <c r="G63" s="7">
-        <v>1130</v>
-      </c>
-      <c r="H63" s="7">
-        <v>1165</v>
-      </c>
-      <c r="I63" s="7">
-        <v>1155</v>
-      </c>
-      <c r="J63" s="7">
-        <v>1355</v>
-      </c>
-      <c r="K63" s="7">
-        <v>1591</v>
-      </c>
-      <c r="L63" s="7">
-        <v>1536</v>
-      </c>
-      <c r="M63" s="7">
-        <v>1103</v>
-      </c>
-      <c r="N63" s="7">
-        <v>1267</v>
-      </c>
-      <c r="O63" s="7">
-        <v>1287</v>
-      </c>
-      <c r="P63" s="7">
-        <v>889</v>
-      </c>
-      <c r="Q63" s="29">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B64" s="8">
-        <v>1976</v>
-      </c>
-      <c r="C64" s="7">
-        <v>1365</v>
-      </c>
-      <c r="D64" s="7">
-        <v>1088</v>
-      </c>
-      <c r="E64" s="7">
-        <v>1427</v>
-      </c>
-      <c r="F64" s="7">
-        <v>1254</v>
-      </c>
-      <c r="G64" s="7">
-        <v>1149</v>
-      </c>
-      <c r="H64" s="7">
-        <v>1652</v>
-      </c>
-      <c r="I64" s="7">
-        <v>1419</v>
-      </c>
-      <c r="J64" s="7">
-        <v>1732</v>
-      </c>
-      <c r="K64" s="7">
-        <v>1948</v>
-      </c>
-      <c r="L64" s="7">
-        <v>1731</v>
-      </c>
-      <c r="M64" s="7">
-        <v>1392</v>
-      </c>
-      <c r="N64" s="7">
-        <v>1994</v>
-      </c>
-      <c r="O64" s="7">
-        <v>1792</v>
-      </c>
-      <c r="P64" s="7">
-        <v>1353</v>
-      </c>
-      <c r="Q64" s="29">
-        <v>1602</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B65" s="8">
-        <v>2475</v>
-      </c>
-      <c r="C65" s="7">
-        <v>1840</v>
-      </c>
-      <c r="D65" s="7">
-        <v>1525</v>
-      </c>
-      <c r="E65" s="7">
-        <v>1877</v>
-      </c>
-      <c r="F65" s="7">
-        <v>1600</v>
-      </c>
-      <c r="G65" s="7">
-        <v>1664</v>
-      </c>
-      <c r="H65" s="7">
-        <v>2559</v>
-      </c>
-      <c r="I65" s="7">
-        <v>2414</v>
-      </c>
-      <c r="J65" s="7">
-        <v>2484</v>
-      </c>
-      <c r="K65" s="7">
-        <v>3029</v>
-      </c>
-      <c r="L65" s="7">
-        <v>2514</v>
-      </c>
-      <c r="M65" s="7">
-        <v>2051</v>
-      </c>
-      <c r="N65" s="7">
-        <v>2774</v>
-      </c>
-      <c r="O65" s="7">
-        <v>2201</v>
-      </c>
-      <c r="P65" s="7">
-        <v>1537</v>
-      </c>
-      <c r="Q65" s="29">
-        <v>2241</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B66" s="8">
-        <v>1269</v>
-      </c>
-      <c r="C66" s="7">
-        <v>972</v>
-      </c>
-      <c r="D66" s="7">
-        <v>937</v>
-      </c>
-      <c r="E66" s="7">
-        <v>1034</v>
-      </c>
-      <c r="F66" s="7">
-        <v>1025</v>
-      </c>
-      <c r="G66" s="7">
-        <v>880</v>
-      </c>
-      <c r="H66" s="7">
-        <v>1063</v>
-      </c>
-      <c r="I66" s="7">
-        <v>923</v>
-      </c>
-      <c r="J66" s="7">
-        <v>1289</v>
-      </c>
-      <c r="K66" s="7">
-        <v>1230</v>
-      </c>
-      <c r="L66" s="7">
-        <v>1008</v>
-      </c>
-      <c r="M66" s="7">
-        <v>875</v>
-      </c>
-      <c r="N66" s="7">
-        <v>1142</v>
-      </c>
-      <c r="O66" s="7">
-        <v>1020</v>
-      </c>
-      <c r="P66" s="7">
-        <v>742</v>
-      </c>
-      <c r="Q66" s="29">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B67" s="8">
-        <v>998</v>
-      </c>
-      <c r="C67" s="7">
-        <v>857</v>
-      </c>
-      <c r="D67" s="7">
-        <v>886</v>
-      </c>
-      <c r="E67" s="7">
-        <v>1297</v>
-      </c>
-      <c r="F67" s="7">
-        <v>855</v>
-      </c>
-      <c r="G67" s="7">
-        <v>878</v>
-      </c>
-      <c r="H67" s="7">
-        <v>897</v>
-      </c>
-      <c r="I67" s="7">
-        <v>894</v>
-      </c>
-      <c r="J67" s="7">
-        <v>1343</v>
-      </c>
-      <c r="K67" s="7">
-        <v>1358</v>
-      </c>
-      <c r="L67" s="7">
-        <v>1202</v>
-      </c>
-      <c r="M67" s="7">
-        <v>906</v>
-      </c>
-      <c r="N67" s="7">
-        <v>1094</v>
-      </c>
-      <c r="O67" s="7">
-        <v>1111</v>
-      </c>
-      <c r="P67" s="7">
-        <v>806</v>
-      </c>
-      <c r="Q67" s="29">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B68" s="8">
-        <v>9964</v>
-      </c>
-      <c r="C68" s="7">
-        <v>7679</v>
-      </c>
-      <c r="D68" s="7">
-        <v>5784</v>
-      </c>
-      <c r="E68" s="7">
-        <v>6980</v>
-      </c>
-      <c r="F68" s="7">
-        <v>6117</v>
-      </c>
-      <c r="G68" s="7">
-        <v>6018</v>
-      </c>
-      <c r="H68" s="7">
-        <v>6930</v>
-      </c>
-      <c r="I68" s="7">
-        <v>6086</v>
-      </c>
-      <c r="J68" s="7">
-        <v>8098</v>
-      </c>
-      <c r="K68" s="7">
-        <v>9839</v>
-      </c>
-      <c r="L68" s="7">
-        <v>8853</v>
-      </c>
-      <c r="M68" s="7">
-        <v>6944</v>
-      </c>
-      <c r="N68" s="7">
-        <v>9912</v>
-      </c>
-      <c r="O68" s="7">
-        <v>9678</v>
-      </c>
-      <c r="P68" s="7">
-        <v>6632</v>
-      </c>
-      <c r="Q68" s="29">
-        <v>8115</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A69" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B69" s="8">
-        <v>180</v>
-      </c>
-      <c r="C69" s="7">
-        <v>171</v>
-      </c>
-      <c r="D69" s="7">
-        <v>173</v>
-      </c>
-      <c r="E69" s="7">
-        <v>191</v>
-      </c>
-      <c r="F69" s="7">
-        <v>170</v>
-      </c>
-      <c r="G69" s="7">
-        <v>158</v>
-      </c>
-      <c r="H69" s="7">
-        <v>187</v>
-      </c>
-      <c r="I69" s="7">
-        <v>215</v>
-      </c>
-      <c r="J69" s="7">
-        <v>390</v>
-      </c>
-      <c r="K69" s="7">
-        <v>307</v>
-      </c>
-      <c r="L69" s="7">
-        <v>226</v>
-      </c>
-      <c r="M69" s="7">
-        <v>144</v>
-      </c>
-      <c r="N69" s="7">
-        <v>214</v>
-      </c>
-      <c r="O69" s="7">
-        <v>211</v>
-      </c>
-      <c r="P69" s="7">
-        <v>225</v>
-      </c>
-      <c r="Q69" s="29">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A70" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B70" s="12">
-        <v>1261</v>
-      </c>
-      <c r="C70" s="12">
-        <v>1017</v>
-      </c>
-      <c r="D70" s="12">
-        <v>813</v>
-      </c>
-      <c r="E70" s="12">
-        <v>972</v>
-      </c>
-      <c r="F70" s="12">
-        <v>996</v>
-      </c>
-      <c r="G70" s="12">
-        <v>870</v>
-      </c>
-      <c r="H70" s="12">
-        <v>873</v>
-      </c>
-      <c r="I70" s="12">
-        <v>820</v>
-      </c>
-      <c r="J70" s="12">
-        <v>1239</v>
-      </c>
-      <c r="K70" s="12">
-        <v>1284</v>
-      </c>
-      <c r="L70" s="12">
-        <v>1135</v>
-      </c>
-      <c r="M70" s="12">
-        <v>1000</v>
-      </c>
-      <c r="N70" s="12">
-        <v>1129</v>
-      </c>
-      <c r="O70" s="12">
-        <v>1122</v>
-      </c>
-      <c r="P70" s="12">
-        <v>783</v>
-      </c>
-      <c r="Q70" s="30">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A71" s="13"/>
+    </row>
+    <row r="21" spans="1:15" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="43" spans="1:15" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="A8:Q8"/>
-    <mergeCell ref="A30:Q30"/>
-    <mergeCell ref="A52:Q52"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:M6"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:M1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:Q71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4324,145 +1553,143 @@
   <cols>
     <col min="1" max="1" width="22.140625" style="1" customWidth="1"/>
     <col min="2" max="3" width="9.140625" style="1"/>
-    <col min="4" max="5" width="9.140625" style="18"/>
+    <col min="4" max="5" width="9.140625" style="8"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
+      <c r="A2" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
       <c r="Q5" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="39">
+      <c r="A6" s="27"/>
+      <c r="B6" s="29">
         <v>2024</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="32">
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="22">
         <v>2025</v>
       </c>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="15" t="s">
+      <c r="A7" s="28"/>
+      <c r="B7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="24" t="s">
+      <c r="J7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="24" t="s">
+      <c r="K7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="24" t="s">
+      <c r="L7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="26" t="s">
+      <c r="M7" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="N7" s="27" t="s">
+      <c r="N7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="O7" s="24" t="s">
+      <c r="O7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="P7" s="15" t="s">
+      <c r="P7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="Q7" s="28" t="s">
+      <c r="Q7" s="18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="22" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+    <row r="8" spans="1:17" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
@@ -4513,13 +1740,13 @@
       <c r="P9" s="7">
         <v>116753</v>
       </c>
-      <c r="Q9" s="29">
+      <c r="Q9" s="19">
         <v>146248</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>37</v>
+      <c r="A10" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="B10" s="7">
         <v>3569</v>
@@ -4566,12 +1793,12 @@
       <c r="P10" s="7">
         <v>2681</v>
       </c>
-      <c r="Q10" s="29">
+      <c r="Q10" s="19">
         <v>3146</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="7">
@@ -4619,12 +1846,12 @@
       <c r="P11" s="7">
         <v>4240</v>
       </c>
-      <c r="Q11" s="29">
+      <c r="Q11" s="19">
         <v>4886</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="7">
@@ -4672,12 +1899,12 @@
       <c r="P12" s="7">
         <v>4529</v>
       </c>
-      <c r="Q12" s="29">
+      <c r="Q12" s="19">
         <v>5356</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="7">
@@ -4725,12 +1952,12 @@
       <c r="P13" s="7">
         <v>12244</v>
       </c>
-      <c r="Q13" s="29">
+      <c r="Q13" s="19">
         <v>14704</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="7">
@@ -4778,12 +2005,12 @@
       <c r="P14" s="7">
         <v>2860</v>
       </c>
-      <c r="Q14" s="29">
+      <c r="Q14" s="19">
         <v>3601</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="7">
@@ -4831,12 +2058,12 @@
       <c r="P15" s="7">
         <v>3979</v>
       </c>
-      <c r="Q15" s="29">
+      <c r="Q15" s="19">
         <v>4698</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="7">
@@ -4884,13 +2111,13 @@
       <c r="P16" s="7">
         <v>5571</v>
       </c>
-      <c r="Q16" s="29">
+      <c r="Q16" s="19">
         <v>6796</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>36</v>
+      <c r="A17" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="B17" s="7">
         <v>5384</v>
@@ -4937,12 +2164,12 @@
       <c r="P17" s="7">
         <v>4020</v>
       </c>
-      <c r="Q17" s="29">
+      <c r="Q17" s="19">
         <v>4789</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="7">
@@ -4990,12 +2217,12 @@
       <c r="P18" s="7">
         <v>4270</v>
       </c>
-      <c r="Q18" s="29">
+      <c r="Q18" s="19">
         <v>5356</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="7">
@@ -5043,12 +2270,12 @@
       <c r="P19" s="7">
         <v>2971</v>
       </c>
-      <c r="Q19" s="29">
+      <c r="Q19" s="19">
         <v>3786</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="7">
@@ -5096,12 +2323,12 @@
       <c r="P20" s="7">
         <v>3435</v>
       </c>
-      <c r="Q20" s="29">
+      <c r="Q20" s="19">
         <v>3995</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="7">
@@ -5149,12 +2376,12 @@
       <c r="P21" s="7">
         <v>3455</v>
       </c>
-      <c r="Q21" s="29">
+      <c r="Q21" s="19">
         <v>4941</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="7">
@@ -5163,7 +2390,7 @@
       <c r="C22" s="7">
         <v>2885</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="7">
         <v>2592</v>
       </c>
       <c r="E22" s="7">
@@ -5202,12 +2429,12 @@
       <c r="P22" s="7">
         <v>2547</v>
       </c>
-      <c r="Q22" s="29">
+      <c r="Q22" s="19">
         <v>3388</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="7">
@@ -5216,7 +2443,7 @@
       <c r="C23" s="7">
         <v>1915</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="7">
         <v>1733</v>
       </c>
       <c r="E23" s="7">
@@ -5255,12 +2482,12 @@
       <c r="P23" s="7">
         <v>2027</v>
       </c>
-      <c r="Q23" s="29">
+      <c r="Q23" s="19">
         <v>2195</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="7">
@@ -5269,7 +2496,7 @@
       <c r="C24" s="7">
         <v>12833</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="7">
         <v>9794</v>
       </c>
       <c r="E24" s="7">
@@ -5308,13 +2535,13 @@
       <c r="P24" s="7">
         <v>12322</v>
       </c>
-      <c r="Q24" s="29">
+      <c r="Q24" s="19">
         <v>17405</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>35</v>
+      <c r="A25" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="B25" s="7">
         <v>1110</v>
@@ -5322,7 +2549,7 @@
       <c r="C25" s="7">
         <v>931</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="7">
         <v>903</v>
       </c>
       <c r="E25" s="7">
@@ -5361,12 +2588,12 @@
       <c r="P25" s="7">
         <v>971</v>
       </c>
-      <c r="Q25" s="29">
+      <c r="Q25" s="19">
         <v>1304</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="7">
@@ -5375,7 +2602,7 @@
       <c r="C26" s="7">
         <v>2639</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="7">
         <v>2191</v>
       </c>
       <c r="E26" s="7">
@@ -5414,12 +2641,12 @@
       <c r="P26" s="7">
         <v>2427</v>
       </c>
-      <c r="Q26" s="29">
+      <c r="Q26" s="19">
         <v>3169</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B27" s="7">
@@ -5428,7 +2655,7 @@
       <c r="C27" s="7">
         <v>14978</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="7">
         <v>14267</v>
       </c>
       <c r="E27" s="7">
@@ -5467,12 +2694,12 @@
       <c r="P27" s="7">
         <v>16269</v>
       </c>
-      <c r="Q27" s="29">
+      <c r="Q27" s="19">
         <v>20202</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B28" s="7">
@@ -5481,7 +2708,7 @@
       <c r="C28" s="7">
         <v>14110</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="7">
         <v>12834</v>
       </c>
       <c r="E28" s="7">
@@ -5520,30 +2747,30 @@
       <c r="P28" s="7">
         <v>16333</v>
       </c>
-      <c r="Q28" s="29">
+      <c r="Q28" s="19">
         <v>20889</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="20">
+      <c r="B29" s="14">
         <v>11515</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C29" s="14">
         <v>10417</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="7">
         <v>8129</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="7">
         <v>10290</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="7">
         <v>9480</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="7">
         <v>8491</v>
       </c>
       <c r="H29" s="7">
@@ -5570,33 +2797,33 @@
       <c r="O29" s="7">
         <v>11487</v>
       </c>
-      <c r="P29" s="12">
+      <c r="P29" s="11">
         <v>9602</v>
       </c>
-      <c r="Q29" s="29">
+      <c r="Q29" s="19">
         <v>11642</v>
       </c>
     </row>
-    <row r="30" spans="1:17" s="22" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="35" t="s">
+    <row r="30" spans="1:17" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="35"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
@@ -5608,7 +2835,7 @@
       <c r="C31" s="7">
         <v>70228</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="7">
         <v>62074</v>
       </c>
       <c r="E31" s="7">
@@ -5647,13 +2874,13 @@
       <c r="P31" s="7">
         <v>73568</v>
       </c>
-      <c r="Q31" s="29">
+      <c r="Q31" s="19">
         <v>91569</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>37</v>
+      <c r="A32" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="B32" s="7">
         <v>1840</v>
@@ -5661,7 +2888,7 @@
       <c r="C32" s="7">
         <v>1385</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="7">
         <v>1261</v>
       </c>
       <c r="E32" s="7">
@@ -5700,12 +2927,12 @@
       <c r="P32" s="7">
         <v>1483</v>
       </c>
-      <c r="Q32" s="29">
+      <c r="Q32" s="19">
         <v>1720</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B33" s="7">
@@ -5714,7 +2941,7 @@
       <c r="C33" s="7">
         <v>1899</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="7">
         <v>1942</v>
       </c>
       <c r="E33" s="7">
@@ -5753,12 +2980,12 @@
       <c r="P33" s="7">
         <v>2055</v>
       </c>
-      <c r="Q33" s="29">
+      <c r="Q33" s="19">
         <v>2301</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B34" s="7">
@@ -5767,7 +2994,7 @@
       <c r="C34" s="7">
         <v>2873</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="7">
         <v>2637</v>
       </c>
       <c r="E34" s="7">
@@ -5806,12 +3033,12 @@
       <c r="P34" s="7">
         <v>3362</v>
       </c>
-      <c r="Q34" s="29">
+      <c r="Q34" s="19">
         <v>3813</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B35" s="7">
@@ -5820,7 +3047,7 @@
       <c r="C35" s="7">
         <v>1696</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="7">
         <v>1383</v>
       </c>
       <c r="E35" s="7">
@@ -5859,12 +3086,12 @@
       <c r="P35" s="7">
         <v>2168</v>
       </c>
-      <c r="Q35" s="29">
+      <c r="Q35" s="19">
         <v>2540</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B36" s="7">
@@ -5873,7 +3100,7 @@
       <c r="C36" s="7">
         <v>1553</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="7">
         <v>1470</v>
       </c>
       <c r="E36" s="7">
@@ -5912,12 +3139,12 @@
       <c r="P36" s="7">
         <v>1528</v>
       </c>
-      <c r="Q36" s="29">
+      <c r="Q36" s="19">
         <v>1829</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B37" s="7">
@@ -5926,7 +3153,7 @@
       <c r="C37" s="7">
         <v>1874</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="7">
         <v>1509</v>
       </c>
       <c r="E37" s="7">
@@ -5965,12 +3192,12 @@
       <c r="P37" s="7">
         <v>2342</v>
       </c>
-      <c r="Q37" s="29">
+      <c r="Q37" s="19">
         <v>2751</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B38" s="7">
@@ -5979,7 +3206,7 @@
       <c r="C38" s="7">
         <v>2231</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="7">
         <v>1819</v>
       </c>
       <c r="E38" s="7">
@@ -6018,13 +3245,13 @@
       <c r="P38" s="7">
         <v>2107</v>
       </c>
-      <c r="Q38" s="29">
+      <c r="Q38" s="19">
         <v>2660</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
-        <v>36</v>
+      <c r="A39" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="B39" s="7">
         <v>2229</v>
@@ -6032,7 +3259,7 @@
       <c r="C39" s="7">
         <v>1746</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="7">
         <v>1465</v>
       </c>
       <c r="E39" s="7">
@@ -6071,12 +3298,12 @@
       <c r="P39" s="7">
         <v>1643</v>
       </c>
-      <c r="Q39" s="29">
+      <c r="Q39" s="19">
         <v>2009</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B40" s="7">
@@ -6085,7 +3312,7 @@
       <c r="C40" s="7">
         <v>3094</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="7">
         <v>2853</v>
       </c>
       <c r="E40" s="7">
@@ -6124,12 +3351,12 @@
       <c r="P40" s="7">
         <v>3130</v>
       </c>
-      <c r="Q40" s="29">
+      <c r="Q40" s="19">
         <v>3914</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B41" s="7">
@@ -6138,7 +3365,7 @@
       <c r="C41" s="7">
         <v>1542</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="7">
         <v>1463</v>
       </c>
       <c r="E41" s="7">
@@ -6177,12 +3404,12 @@
       <c r="P41" s="7">
         <v>1527</v>
       </c>
-      <c r="Q41" s="29">
+      <c r="Q41" s="19">
         <v>1924</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B42" s="7">
@@ -6191,7 +3418,7 @@
       <c r="C42" s="7">
         <v>1629</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="7">
         <v>1390</v>
       </c>
       <c r="E42" s="7">
@@ -6230,12 +3457,12 @@
       <c r="P42" s="7">
         <v>1568</v>
       </c>
-      <c r="Q42" s="29">
+      <c r="Q42" s="19">
         <v>1910</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B43" s="7">
@@ -6244,7 +3471,7 @@
       <c r="C43" s="7">
         <v>1660</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="7">
         <v>1354</v>
       </c>
       <c r="E43" s="7">
@@ -6283,12 +3510,12 @@
       <c r="P43" s="7">
         <v>1484</v>
       </c>
-      <c r="Q43" s="29">
+      <c r="Q43" s="19">
         <v>2016</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B44" s="7">
@@ -6297,7 +3524,7 @@
       <c r="C44" s="7">
         <v>1559</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="7">
         <v>1464</v>
       </c>
       <c r="E44" s="7">
@@ -6336,12 +3563,12 @@
       <c r="P44" s="7">
         <v>1527</v>
       </c>
-      <c r="Q44" s="29">
+      <c r="Q44" s="19">
         <v>1985</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B45" s="7">
@@ -6350,7 +3577,7 @@
       <c r="C45" s="7">
         <v>650</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="7">
         <v>580</v>
       </c>
       <c r="E45" s="7">
@@ -6389,12 +3616,12 @@
       <c r="P45" s="7">
         <v>615</v>
       </c>
-      <c r="Q45" s="29">
+      <c r="Q45" s="19">
         <v>753</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B46" s="7">
@@ -6403,7 +3630,7 @@
       <c r="C46" s="7">
         <v>3164</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="7">
         <v>2466</v>
       </c>
       <c r="E46" s="7">
@@ -6442,13 +3669,13 @@
       <c r="P46" s="7">
         <v>2931</v>
       </c>
-      <c r="Q46" s="29">
+      <c r="Q46" s="19">
         <v>4235</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
-        <v>35</v>
+      <c r="A47" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="B47" s="7">
         <v>837</v>
@@ -6456,7 +3683,7 @@
       <c r="C47" s="7">
         <v>712</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="7">
         <v>667</v>
       </c>
       <c r="E47" s="7">
@@ -6495,12 +3722,12 @@
       <c r="P47" s="7">
         <v>671</v>
       </c>
-      <c r="Q47" s="29">
+      <c r="Q47" s="19">
         <v>964</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B48" s="7">
@@ -6509,7 +3736,7 @@
       <c r="C48" s="7">
         <v>1456</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="7">
         <v>1121</v>
       </c>
       <c r="E48" s="7">
@@ -6548,12 +3775,12 @@
       <c r="P48" s="7">
         <v>1223</v>
       </c>
-      <c r="Q48" s="29">
+      <c r="Q48" s="19">
         <v>1512</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B49" s="7">
@@ -6562,7 +3789,7 @@
       <c r="C49" s="7">
         <v>14978</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="7">
         <v>14267</v>
       </c>
       <c r="E49" s="7">
@@ -6601,21 +3828,21 @@
       <c r="P49" s="7">
         <v>16269</v>
       </c>
-      <c r="Q49" s="29">
+      <c r="Q49" s="19">
         <v>20202</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="17" t="s">
+      <c r="A50" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B50" s="19">
+      <c r="B50" s="14">
         <v>15835</v>
       </c>
-      <c r="C50" s="19">
+      <c r="C50" s="14">
         <v>14110</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D50" s="7">
         <v>12834</v>
       </c>
       <c r="E50" s="7">
@@ -6654,27 +3881,27 @@
       <c r="P50" s="7">
         <v>16333</v>
       </c>
-      <c r="Q50" s="29">
+      <c r="Q50" s="19">
         <v>20889</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B51" s="8">
+      <c r="B51" s="7">
         <v>11515</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51" s="7">
         <v>10417</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D51" s="7">
         <v>8129</v>
       </c>
-      <c r="E51" s="8">
+      <c r="E51" s="7">
         <v>10290</v>
       </c>
-      <c r="F51" s="8">
+      <c r="F51" s="7">
         <v>9480</v>
       </c>
       <c r="G51" s="7">
@@ -6704,33 +3931,33 @@
       <c r="O51" s="7">
         <v>11487</v>
       </c>
-      <c r="P51" s="8">
+      <c r="P51" s="7">
         <v>9602</v>
       </c>
-      <c r="Q51" s="29">
+      <c r="Q51" s="19">
         <v>11642</v>
       </c>
     </row>
-    <row r="52" spans="1:17" s="22" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="36" t="s">
+    <row r="52" spans="1:17" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B52" s="36"/>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
-      <c r="N52" s="36"/>
-      <c r="O52" s="36"/>
-      <c r="P52" s="36"/>
-      <c r="Q52" s="36"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="26"/>
+      <c r="L52" s="26"/>
+      <c r="M52" s="26"/>
+      <c r="N52" s="26"/>
+      <c r="O52" s="26"/>
+      <c r="P52" s="26"/>
+      <c r="Q52" s="26"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
@@ -6742,7 +3969,7 @@
       <c r="C53" s="7">
         <v>44751</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D53" s="7">
         <v>36305</v>
       </c>
       <c r="E53" s="7">
@@ -6781,13 +4008,13 @@
       <c r="P53" s="7">
         <v>43185</v>
       </c>
-      <c r="Q53" s="29">
+      <c r="Q53" s="19">
         <v>54679</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
-        <v>37</v>
+      <c r="A54" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="B54" s="7">
         <v>1729</v>
@@ -6795,7 +4022,7 @@
       <c r="C54" s="7">
         <v>1291</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D54" s="7">
         <v>1017</v>
       </c>
       <c r="E54" s="7">
@@ -6834,12 +4061,12 @@
       <c r="P54" s="7">
         <v>1198</v>
       </c>
-      <c r="Q54" s="29">
+      <c r="Q54" s="19">
         <v>1426</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B55" s="7">
@@ -6848,7 +4075,7 @@
       <c r="C55" s="7">
         <v>2081</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D55" s="7">
         <v>2040</v>
       </c>
       <c r="E55" s="7">
@@ -6887,12 +4114,12 @@
       <c r="P55" s="7">
         <v>2185</v>
       </c>
-      <c r="Q55" s="29">
+      <c r="Q55" s="19">
         <v>2585</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B56" s="7">
@@ -6901,7 +4128,7 @@
       <c r="C56" s="7">
         <v>1103</v>
       </c>
-      <c r="D56" s="8">
+      <c r="D56" s="7">
         <v>1030</v>
       </c>
       <c r="E56" s="7">
@@ -6940,12 +4167,12 @@
       <c r="P56" s="7">
         <v>1167</v>
       </c>
-      <c r="Q56" s="29">
+      <c r="Q56" s="19">
         <v>1543</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B57" s="7">
@@ -6954,7 +4181,7 @@
       <c r="C57" s="7">
         <v>10339</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D57" s="7">
         <v>7941</v>
       </c>
       <c r="E57" s="7">
@@ -6993,12 +4220,12 @@
       <c r="P57" s="7">
         <v>10076</v>
       </c>
-      <c r="Q57" s="29">
+      <c r="Q57" s="19">
         <v>12164</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B58" s="7">
@@ -7007,7 +4234,7 @@
       <c r="C58" s="7">
         <v>1486</v>
       </c>
-      <c r="D58" s="8">
+      <c r="D58" s="7">
         <v>1144</v>
       </c>
       <c r="E58" s="7">
@@ -7046,12 +4273,12 @@
       <c r="P58" s="7">
         <v>1332</v>
       </c>
-      <c r="Q58" s="29">
+      <c r="Q58" s="19">
         <v>1772</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B59" s="7">
@@ -7099,12 +4326,12 @@
       <c r="P59" s="7">
         <v>1637</v>
       </c>
-      <c r="Q59" s="29">
+      <c r="Q59" s="19">
         <v>1947</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B60" s="7">
@@ -7152,13 +4379,13 @@
       <c r="P60" s="7">
         <v>3464</v>
       </c>
-      <c r="Q60" s="29">
+      <c r="Q60" s="19">
         <v>4136</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="10" t="s">
-        <v>36</v>
+      <c r="A61" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="B61" s="7">
         <v>3155</v>
@@ -7205,12 +4432,12 @@
       <c r="P61" s="7">
         <v>2377</v>
       </c>
-      <c r="Q61" s="29">
+      <c r="Q61" s="19">
         <v>2780</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B62" s="7">
@@ -7258,12 +4485,12 @@
       <c r="P62" s="7">
         <v>1140</v>
       </c>
-      <c r="Q62" s="29">
+      <c r="Q62" s="19">
         <v>1442</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B63" s="7">
@@ -7311,12 +4538,12 @@
       <c r="P63" s="7">
         <v>1444</v>
       </c>
-      <c r="Q63" s="29">
+      <c r="Q63" s="19">
         <v>1862</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B64" s="7">
@@ -7364,12 +4591,12 @@
       <c r="P64" s="7">
         <v>1867</v>
       </c>
-      <c r="Q64" s="29">
+      <c r="Q64" s="19">
         <v>2085</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B65" s="7">
@@ -7417,12 +4644,12 @@
       <c r="P65" s="7">
         <v>1971</v>
       </c>
-      <c r="Q65" s="29">
+      <c r="Q65" s="19">
         <v>2925</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B66" s="7">
@@ -7470,12 +4697,12 @@
       <c r="P66" s="7">
         <v>1020</v>
       </c>
-      <c r="Q66" s="29">
+      <c r="Q66" s="19">
         <v>1403</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" s="10" t="s">
+      <c r="A67" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B67" s="7">
@@ -7523,12 +4750,12 @@
       <c r="P67" s="7">
         <v>1412</v>
       </c>
-      <c r="Q67" s="29">
+      <c r="Q67" s="19">
         <v>1442</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68" s="10" t="s">
+      <c r="A68" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B68" s="7">
@@ -7576,13 +4803,13 @@
       <c r="P68" s="7">
         <v>9391</v>
       </c>
-      <c r="Q68" s="29">
+      <c r="Q68" s="19">
         <v>13170</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A69" s="10" t="s">
-        <v>35</v>
+      <c r="A69" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="B69" s="7">
         <v>273</v>
@@ -7629,65 +4856,65 @@
       <c r="P69" s="7">
         <v>300</v>
       </c>
-      <c r="Q69" s="29">
+      <c r="Q69" s="19">
         <v>340</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A70" s="11" t="s">
+      <c r="A70" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B70" s="12">
+      <c r="B70" s="11">
         <v>1553</v>
       </c>
-      <c r="C70" s="12">
+      <c r="C70" s="11">
         <v>1183</v>
       </c>
-      <c r="D70" s="12">
+      <c r="D70" s="11">
         <v>1070</v>
       </c>
-      <c r="E70" s="12">
+      <c r="E70" s="11">
         <v>1212</v>
       </c>
-      <c r="F70" s="12">
+      <c r="F70" s="11">
         <v>1370</v>
       </c>
-      <c r="G70" s="12">
+      <c r="G70" s="11">
         <v>1329</v>
       </c>
-      <c r="H70" s="12">
+      <c r="H70" s="11">
         <v>1317</v>
       </c>
-      <c r="I70" s="12">
+      <c r="I70" s="11">
         <v>1103</v>
       </c>
-      <c r="J70" s="12">
+      <c r="J70" s="11">
         <v>1718</v>
       </c>
-      <c r="K70" s="12">
+      <c r="K70" s="11">
         <v>1812</v>
       </c>
-      <c r="L70" s="12">
+      <c r="L70" s="11">
         <v>1769</v>
       </c>
-      <c r="M70" s="12">
+      <c r="M70" s="11">
         <v>1497</v>
       </c>
-      <c r="N70" s="12">
+      <c r="N70" s="11">
         <v>1732</v>
       </c>
-      <c r="O70" s="12">
+      <c r="O70" s="11">
         <v>1522</v>
       </c>
-      <c r="P70" s="12">
+      <c r="P70" s="11">
         <v>1204</v>
       </c>
-      <c r="Q70" s="30">
+      <c r="Q70" s="20">
         <v>1657</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A71" s="13"/>
+      <c r="A71" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7706,7 +4933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:Q72"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -7717,149 +4944,147 @@
   <cols>
     <col min="1" max="1" width="22.140625" style="1" customWidth="1"/>
     <col min="2" max="3" width="9.140625" style="1"/>
-    <col min="4" max="5" width="9.140625" style="18"/>
+    <col min="4" max="5" width="9.140625" style="8"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
+      <c r="A2" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
       <c r="Q5" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="39">
+      <c r="A6" s="27"/>
+      <c r="B6" s="29">
         <v>2024</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="32">
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="22">
         <v>2025</v>
       </c>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="24" t="s">
+      <c r="J7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="24" t="s">
+      <c r="K7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="24" t="s">
+      <c r="L7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="26" t="s">
+      <c r="M7" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="N7" s="27" t="s">
+      <c r="N7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="O7" s="15" t="s">
+      <c r="O7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="P7" s="15" t="s">
+      <c r="P7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="Q7" s="28" t="s">
+      <c r="Q7" s="18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="22" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+    <row r="8" spans="1:17" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>37</v>
+      <c r="A9" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="B9" s="7">
         <v>-933</v>
@@ -7903,15 +5128,15 @@
       <c r="O9" s="7">
         <v>-593</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="7">
         <v>-622</v>
       </c>
-      <c r="Q9" s="29">
+      <c r="Q9" s="19">
         <v>-810</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="7">
@@ -7956,15 +5181,15 @@
       <c r="O10" s="7">
         <v>49</v>
       </c>
-      <c r="P10" s="8">
+      <c r="P10" s="7">
         <v>-226</v>
       </c>
-      <c r="Q10" s="29">
+      <c r="Q10" s="19">
         <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="7">
@@ -8009,15 +5234,15 @@
       <c r="O11" s="7">
         <v>-372</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P11" s="7">
         <v>-417</v>
       </c>
-      <c r="Q11" s="29">
+      <c r="Q11" s="19">
         <v>-414</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="7">
@@ -8062,15 +5287,15 @@
       <c r="O12" s="7">
         <v>1616</v>
       </c>
-      <c r="P12" s="8">
+      <c r="P12" s="7">
         <v>394</v>
       </c>
-      <c r="Q12" s="29">
+      <c r="Q12" s="19">
         <v>1610</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="7">
@@ -8115,15 +5340,15 @@
       <c r="O13" s="7">
         <v>-248</v>
       </c>
-      <c r="P13" s="8">
+      <c r="P13" s="7">
         <v>-242</v>
       </c>
-      <c r="Q13" s="29">
+      <c r="Q13" s="19">
         <v>-413</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="7">
@@ -8168,15 +5393,15 @@
       <c r="O14" s="7">
         <v>-333</v>
       </c>
-      <c r="P14" s="8">
+      <c r="P14" s="7">
         <v>-327</v>
       </c>
-      <c r="Q14" s="29">
+      <c r="Q14" s="19">
         <v>-483</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="7">
@@ -8221,16 +5446,16 @@
       <c r="O15" s="7">
         <v>-1508</v>
       </c>
-      <c r="P15" s="8">
+      <c r="P15" s="7">
         <v>-1502</v>
       </c>
-      <c r="Q15" s="29">
+      <c r="Q15" s="19">
         <v>-1661</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>36</v>
+      <c r="A16" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="B16" s="7">
         <v>-1261</v>
@@ -8274,15 +5499,15 @@
       <c r="O16" s="7">
         <v>-1091</v>
       </c>
-      <c r="P16" s="8">
+      <c r="P16" s="7">
         <v>-874</v>
       </c>
-      <c r="Q16" s="29">
+      <c r="Q16" s="19">
         <v>-914</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="7">
@@ -8327,15 +5552,15 @@
       <c r="O17" s="7">
         <v>-364</v>
       </c>
-      <c r="P17" s="8">
+      <c r="P17" s="7">
         <v>-370</v>
       </c>
-      <c r="Q17" s="29">
+      <c r="Q17" s="19">
         <v>-481</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="7">
@@ -8380,15 +5605,15 @@
       <c r="O18" s="7">
         <v>-309</v>
       </c>
-      <c r="P18" s="8">
+      <c r="P18" s="7">
         <v>-387</v>
       </c>
-      <c r="Q18" s="29">
+      <c r="Q18" s="19">
         <v>-263</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="7">
@@ -8433,15 +5658,15 @@
       <c r="O19" s="7">
         <v>-802</v>
       </c>
-      <c r="P19" s="8">
+      <c r="P19" s="7">
         <v>-716</v>
       </c>
-      <c r="Q19" s="29">
+      <c r="Q19" s="19">
         <v>-803</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="7">
@@ -8486,15 +5711,15 @@
       <c r="O20" s="7">
         <v>-170</v>
       </c>
-      <c r="P20" s="8">
+      <c r="P20" s="7">
         <v>-108</v>
       </c>
-      <c r="Q20" s="29">
+      <c r="Q20" s="19">
         <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="7">
@@ -8539,15 +5764,15 @@
       <c r="O21" s="7">
         <v>-562</v>
       </c>
-      <c r="P21" s="8">
+      <c r="P21" s="7">
         <v>-535</v>
       </c>
-      <c r="Q21" s="29">
+      <c r="Q21" s="19">
         <v>-734</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="7">
@@ -8556,7 +5781,7 @@
       <c r="C22" s="7">
         <v>-338</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="7">
         <v>-213</v>
       </c>
       <c r="E22" s="7">
@@ -8592,15 +5817,15 @@
       <c r="O22" s="7">
         <v>-504</v>
       </c>
-      <c r="P22" s="8">
+      <c r="P22" s="7">
         <v>-450</v>
       </c>
-      <c r="Q22" s="29">
+      <c r="Q22" s="19">
         <v>-415</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="7">
@@ -8609,7 +5834,7 @@
       <c r="C23" s="7">
         <v>-2080</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="7">
         <v>-1811</v>
       </c>
       <c r="E23" s="7">
@@ -8645,16 +5870,16 @@
       <c r="O23" s="7">
         <v>-2602</v>
       </c>
-      <c r="P23" s="8">
+      <c r="P23" s="7">
         <v>-2972</v>
       </c>
-      <c r="Q23" s="29">
+      <c r="Q23" s="19">
         <v>-6119</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>35</v>
+      <c r="A24" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="B24" s="7">
         <v>-232</v>
@@ -8662,7 +5887,7 @@
       <c r="C24" s="7">
         <v>-219</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="7">
         <v>-177</v>
       </c>
       <c r="E24" s="7">
@@ -8698,15 +5923,15 @@
       <c r="O24" s="7">
         <v>-305</v>
       </c>
-      <c r="P24" s="8">
+      <c r="P24" s="7">
         <v>-180</v>
       </c>
-      <c r="Q24" s="29">
+      <c r="Q24" s="19">
         <v>-343</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="7">
@@ -8715,7 +5940,7 @@
       <c r="C25" s="7">
         <v>-180</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="7">
         <v>-148</v>
       </c>
       <c r="E25" s="7">
@@ -8751,15 +5976,15 @@
       <c r="O25" s="7">
         <v>-305</v>
       </c>
-      <c r="P25" s="8">
+      <c r="P25" s="7">
         <v>-277</v>
       </c>
-      <c r="Q25" s="29">
+      <c r="Q25" s="19">
         <v>-301</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B26" s="7">
@@ -8768,7 +5993,7 @@
       <c r="C26" s="7">
         <v>4884</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="7">
         <v>4957</v>
       </c>
       <c r="E26" s="7">
@@ -8804,15 +6029,15 @@
       <c r="O26" s="7">
         <v>5669</v>
       </c>
-      <c r="P26" s="8">
+      <c r="P26" s="7">
         <v>5427</v>
       </c>
-      <c r="Q26" s="29">
+      <c r="Q26" s="19">
         <v>5232</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="7">
@@ -8821,7 +6046,7 @@
       <c r="C27" s="7">
         <v>2982</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="7">
         <v>1619</v>
       </c>
       <c r="E27" s="7">
@@ -8857,33 +6082,33 @@
       <c r="O27" s="7">
         <v>1700</v>
       </c>
-      <c r="P27" s="8">
+      <c r="P27" s="7">
         <v>3233</v>
       </c>
-      <c r="Q27" s="29">
+      <c r="Q27" s="19">
         <v>2133</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B28" s="7">
         <v>2278</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="7">
         <v>842</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="7">
         <v>416</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="7">
         <v>412</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="7">
         <v>444</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="7">
         <v>170</v>
       </c>
       <c r="H28" s="7">
@@ -8910,89 +6135,89 @@
       <c r="O28" s="7">
         <v>1034</v>
       </c>
-      <c r="P28" s="8">
+      <c r="P28" s="7">
         <v>1151</v>
       </c>
-      <c r="Q28" s="29">
+      <c r="Q28" s="19">
         <v>4874</v>
       </c>
     </row>
-    <row r="29" spans="1:17" s="22" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="35" t="s">
+    <row r="29" spans="1:17" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="35"/>
-      <c r="P29" s="35"/>
-      <c r="Q29" s="35"/>
-    </row>
-    <row r="30" spans="1:17" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="19">
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+    </row>
+    <row r="30" spans="1:17" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="14">
         <v>-320</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="14">
         <v>3</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D30" s="14">
         <v>-149</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E30" s="14">
         <v>32</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="14">
         <v>-125</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G30" s="14">
         <v>-69</v>
       </c>
-      <c r="H30" s="19">
+      <c r="H30" s="14">
         <v>-28</v>
       </c>
-      <c r="I30" s="19">
+      <c r="I30" s="14">
         <v>-223</v>
       </c>
-      <c r="J30" s="19">
+      <c r="J30" s="14">
         <v>-118</v>
       </c>
-      <c r="K30" s="19">
+      <c r="K30" s="14">
         <v>-44</v>
       </c>
-      <c r="L30" s="19">
+      <c r="L30" s="14">
         <v>34</v>
       </c>
-      <c r="M30" s="19">
+      <c r="M30" s="14">
         <v>183</v>
       </c>
-      <c r="N30" s="19">
+      <c r="N30" s="14">
         <v>-104</v>
       </c>
-      <c r="O30" s="19">
+      <c r="O30" s="14">
         <v>34</v>
       </c>
-      <c r="P30" s="8">
+      <c r="P30" s="7">
         <v>-208</v>
       </c>
-      <c r="Q30" s="29">
+      <c r="Q30" s="19">
         <v>-230</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B31" s="7">
@@ -9001,7 +6226,7 @@
       <c r="C31" s="7">
         <v>231</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="7">
         <v>-132</v>
       </c>
       <c r="E31" s="7">
@@ -9013,39 +6238,39 @@
       <c r="G31" s="7">
         <v>462</v>
       </c>
-      <c r="H31" s="19">
+      <c r="H31" s="14">
         <v>212</v>
       </c>
-      <c r="I31" s="19">
+      <c r="I31" s="14">
         <v>264</v>
       </c>
-      <c r="J31" s="19">
+      <c r="J31" s="14">
         <v>94</v>
       </c>
-      <c r="K31" s="19">
+      <c r="K31" s="14">
         <v>145</v>
       </c>
-      <c r="L31" s="19">
+      <c r="L31" s="14">
         <v>150</v>
       </c>
-      <c r="M31" s="19">
+      <c r="M31" s="14">
         <v>243</v>
       </c>
-      <c r="N31" s="19">
+      <c r="N31" s="14">
         <v>552</v>
       </c>
-      <c r="O31" s="19">
+      <c r="O31" s="14">
         <v>579</v>
       </c>
-      <c r="P31" s="8">
+      <c r="P31" s="7">
         <v>232</v>
       </c>
-      <c r="Q31" s="29">
+      <c r="Q31" s="19">
         <v>619</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="7">
@@ -9054,7 +6279,7 @@
       <c r="C32" s="7">
         <v>77</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="7">
         <v>115</v>
       </c>
       <c r="E32" s="7">
@@ -9066,39 +6291,39 @@
       <c r="G32" s="7">
         <v>448</v>
       </c>
-      <c r="H32" s="19">
+      <c r="H32" s="14">
         <v>589</v>
       </c>
-      <c r="I32" s="19">
+      <c r="I32" s="14">
         <v>855</v>
       </c>
-      <c r="J32" s="19">
+      <c r="J32" s="14">
         <v>363</v>
       </c>
-      <c r="K32" s="19">
+      <c r="K32" s="14">
         <v>571</v>
       </c>
-      <c r="L32" s="19">
+      <c r="L32" s="14">
         <v>318</v>
       </c>
-      <c r="M32" s="19">
+      <c r="M32" s="14">
         <v>300</v>
       </c>
-      <c r="N32" s="19">
+      <c r="N32" s="14">
         <v>279</v>
       </c>
-      <c r="O32" s="19">
+      <c r="O32" s="14">
         <v>197</v>
       </c>
-      <c r="P32" s="8">
+      <c r="P32" s="7">
         <v>-64</v>
       </c>
-      <c r="Q32" s="29">
+      <c r="Q32" s="19">
         <v>270</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B33" s="7">
@@ -9107,7 +6332,7 @@
       <c r="C33" s="7">
         <v>54</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="7">
         <v>-109</v>
       </c>
       <c r="E33" s="7">
@@ -9119,39 +6344,39 @@
       <c r="G33" s="7">
         <v>-31</v>
       </c>
-      <c r="H33" s="19">
+      <c r="H33" s="14">
         <v>-22</v>
       </c>
-      <c r="I33" s="19">
+      <c r="I33" s="14">
         <v>-212</v>
       </c>
-      <c r="J33" s="19">
+      <c r="J33" s="14">
         <v>-150</v>
       </c>
-      <c r="K33" s="19">
+      <c r="K33" s="14">
         <v>-228</v>
       </c>
-      <c r="L33" s="19">
+      <c r="L33" s="14">
         <v>-146</v>
       </c>
-      <c r="M33" s="19">
+      <c r="M33" s="14">
         <v>-351</v>
       </c>
-      <c r="N33" s="19">
+      <c r="N33" s="14">
         <v>-202</v>
       </c>
-      <c r="O33" s="19">
+      <c r="O33" s="14">
         <v>337</v>
       </c>
-      <c r="P33" s="8">
+      <c r="P33" s="7">
         <v>55</v>
       </c>
-      <c r="Q33" s="29">
+      <c r="Q33" s="19">
         <v>324</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B34" s="7">
@@ -9160,7 +6385,7 @@
       <c r="C34" s="7">
         <v>-329</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="7">
         <v>-430</v>
       </c>
       <c r="E34" s="7">
@@ -9172,39 +6397,39 @@
       <c r="G34" s="7">
         <v>-457</v>
       </c>
-      <c r="H34" s="19">
+      <c r="H34" s="14">
         <v>-773</v>
       </c>
-      <c r="I34" s="19">
+      <c r="I34" s="14">
         <v>-365</v>
       </c>
-      <c r="J34" s="19">
+      <c r="J34" s="14">
         <v>-586</v>
       </c>
-      <c r="K34" s="19">
+      <c r="K34" s="14">
         <v>-717</v>
       </c>
-      <c r="L34" s="19">
+      <c r="L34" s="14">
         <v>-327</v>
       </c>
-      <c r="M34" s="19">
+      <c r="M34" s="14">
         <v>-329</v>
       </c>
-      <c r="N34" s="19">
+      <c r="N34" s="14">
         <v>-618</v>
       </c>
-      <c r="O34" s="19">
+      <c r="O34" s="14">
         <v>-444</v>
       </c>
-      <c r="P34" s="8">
+      <c r="P34" s="7">
         <v>-123</v>
       </c>
-      <c r="Q34" s="29">
+      <c r="Q34" s="19">
         <v>-127</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B35" s="7">
@@ -9213,7 +6438,7 @@
       <c r="C35" s="7">
         <v>89</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="7">
         <v>119</v>
       </c>
       <c r="E35" s="7">
@@ -9225,39 +6450,39 @@
       <c r="G35" s="7">
         <v>166</v>
       </c>
-      <c r="H35" s="19">
+      <c r="H35" s="14">
         <v>402</v>
       </c>
-      <c r="I35" s="19">
+      <c r="I35" s="14">
         <v>316</v>
       </c>
-      <c r="J35" s="19">
+      <c r="J35" s="14">
         <v>154</v>
       </c>
-      <c r="K35" s="19">
+      <c r="K35" s="14">
         <v>220</v>
       </c>
-      <c r="L35" s="19">
+      <c r="L35" s="14">
         <v>244</v>
       </c>
-      <c r="M35" s="19">
+      <c r="M35" s="14">
         <v>450</v>
       </c>
-      <c r="N35" s="19">
+      <c r="N35" s="14">
         <v>206</v>
       </c>
-      <c r="O35" s="19">
+      <c r="O35" s="14">
         <v>84</v>
       </c>
-      <c r="P35" s="8">
+      <c r="P35" s="7">
         <v>101</v>
       </c>
-      <c r="Q35" s="29">
+      <c r="Q35" s="19">
         <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B36" s="7">
@@ -9266,7 +6491,7 @@
       <c r="C36" s="7">
         <v>-178</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="7">
         <v>-31</v>
       </c>
       <c r="E36" s="7">
@@ -9278,40 +6503,40 @@
       <c r="G36" s="7">
         <v>-56</v>
       </c>
-      <c r="H36" s="19">
+      <c r="H36" s="14">
         <v>-157</v>
       </c>
-      <c r="I36" s="19">
+      <c r="I36" s="14">
         <v>-208</v>
       </c>
-      <c r="J36" s="19">
+      <c r="J36" s="14">
         <v>-315</v>
       </c>
-      <c r="K36" s="19">
+      <c r="K36" s="14">
         <v>-214</v>
       </c>
-      <c r="L36" s="19">
+      <c r="L36" s="14">
         <v>-408</v>
       </c>
-      <c r="M36" s="19">
+      <c r="M36" s="14">
         <v>-53</v>
       </c>
-      <c r="N36" s="19">
+      <c r="N36" s="14">
         <v>-3</v>
       </c>
-      <c r="O36" s="19">
+      <c r="O36" s="14">
         <v>-79</v>
       </c>
-      <c r="P36" s="8">
+      <c r="P36" s="7">
         <v>-175</v>
       </c>
-      <c r="Q36" s="29">
+      <c r="Q36" s="19">
         <v>-282</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
-        <v>36</v>
+      <c r="A37" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="B37" s="7">
         <v>-390</v>
@@ -9319,7 +6544,7 @@
       <c r="C37" s="7">
         <v>-333</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="7">
         <v>-280</v>
       </c>
       <c r="E37" s="7">
@@ -9331,39 +6556,39 @@
       <c r="G37" s="7">
         <v>22</v>
       </c>
-      <c r="H37" s="19">
+      <c r="H37" s="14">
         <v>-98</v>
       </c>
-      <c r="I37" s="19">
+      <c r="I37" s="14">
         <v>-139</v>
       </c>
-      <c r="J37" s="19">
+      <c r="J37" s="14">
         <v>-183</v>
       </c>
-      <c r="K37" s="19">
+      <c r="K37" s="14">
         <v>-471</v>
       </c>
-      <c r="L37" s="19">
+      <c r="L37" s="14">
         <v>-361</v>
       </c>
-      <c r="M37" s="19">
+      <c r="M37" s="14">
         <v>-292</v>
       </c>
-      <c r="N37" s="19">
+      <c r="N37" s="14">
         <v>-402</v>
       </c>
-      <c r="O37" s="19">
+      <c r="O37" s="14">
         <v>-302</v>
       </c>
-      <c r="P37" s="8">
+      <c r="P37" s="7">
         <v>-206</v>
       </c>
-      <c r="Q37" s="29">
+      <c r="Q37" s="19">
         <v>-352</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B38" s="7">
@@ -9372,7 +6597,7 @@
       <c r="C38" s="7">
         <v>-73</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="7">
         <v>-34</v>
       </c>
       <c r="E38" s="7">
@@ -9384,39 +6609,39 @@
       <c r="G38" s="7">
         <v>-21</v>
       </c>
-      <c r="H38" s="19">
+      <c r="H38" s="14">
         <v>-35</v>
       </c>
-      <c r="I38" s="19">
+      <c r="I38" s="14">
         <v>114</v>
       </c>
-      <c r="J38" s="19">
+      <c r="J38" s="14">
         <v>2</v>
       </c>
-      <c r="K38" s="19">
+      <c r="K38" s="14">
         <v>121</v>
       </c>
-      <c r="L38" s="19">
+      <c r="L38" s="14">
         <v>145</v>
       </c>
-      <c r="M38" s="19">
+      <c r="M38" s="14">
         <v>117</v>
       </c>
-      <c r="N38" s="19">
+      <c r="N38" s="14">
         <v>279</v>
       </c>
-      <c r="O38" s="19">
+      <c r="O38" s="14">
         <v>260</v>
       </c>
-      <c r="P38" s="8">
+      <c r="P38" s="7">
         <v>45</v>
       </c>
-      <c r="Q38" s="29">
+      <c r="Q38" s="19">
         <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B39" s="7">
@@ -9425,7 +6650,7 @@
       <c r="C39" s="7">
         <v>82</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="7">
         <v>-19</v>
       </c>
       <c r="E39" s="7">
@@ -9437,39 +6662,39 @@
       <c r="G39" s="7">
         <v>73</v>
       </c>
-      <c r="H39" s="19">
+      <c r="H39" s="14">
         <v>167</v>
       </c>
-      <c r="I39" s="19">
+      <c r="I39" s="14">
         <v>224</v>
       </c>
-      <c r="J39" s="19">
+      <c r="J39" s="14">
         <v>104</v>
       </c>
-      <c r="K39" s="19">
+      <c r="K39" s="14">
         <v>195</v>
       </c>
-      <c r="L39" s="19">
+      <c r="L39" s="14">
         <v>311</v>
       </c>
-      <c r="M39" s="19">
+      <c r="M39" s="14">
         <v>422</v>
       </c>
-      <c r="N39" s="19">
+      <c r="N39" s="14">
         <v>429</v>
       </c>
-      <c r="O39" s="19">
+      <c r="O39" s="14">
         <v>262</v>
       </c>
-      <c r="P39" s="8">
+      <c r="P39" s="7">
         <v>168</v>
       </c>
-      <c r="Q39" s="29">
+      <c r="Q39" s="19">
         <v>303</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B40" s="7">
@@ -9478,7 +6703,7 @@
       <c r="C40" s="7">
         <v>-125</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="7">
         <v>-120</v>
       </c>
       <c r="E40" s="7">
@@ -9490,39 +6715,39 @@
       <c r="G40" s="7">
         <v>-349</v>
       </c>
-      <c r="H40" s="19">
+      <c r="H40" s="14">
         <v>-246</v>
       </c>
-      <c r="I40" s="19">
+      <c r="I40" s="14">
         <v>-257</v>
       </c>
-      <c r="J40" s="19">
+      <c r="J40" s="14">
         <v>-383</v>
       </c>
-      <c r="K40" s="19">
+      <c r="K40" s="14">
         <v>-342</v>
       </c>
-      <c r="L40" s="19">
+      <c r="L40" s="14">
         <v>-357</v>
       </c>
-      <c r="M40" s="19">
+      <c r="M40" s="14">
         <v>-254</v>
       </c>
-      <c r="N40" s="19">
+      <c r="N40" s="14">
         <v>-231</v>
       </c>
-      <c r="O40" s="19">
+      <c r="O40" s="14">
         <v>-265</v>
       </c>
-      <c r="P40" s="8">
+      <c r="P40" s="7">
         <v>-202</v>
       </c>
-      <c r="Q40" s="29">
+      <c r="Q40" s="19">
         <v>-320</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B41" s="7">
@@ -9531,7 +6756,7 @@
       <c r="C41" s="7">
         <v>192</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="7">
         <v>279</v>
       </c>
       <c r="E41" s="7">
@@ -9543,39 +6768,39 @@
       <c r="G41" s="7">
         <v>585</v>
       </c>
-      <c r="H41" s="19">
+      <c r="H41" s="14">
         <v>591</v>
       </c>
-      <c r="I41" s="19">
+      <c r="I41" s="14">
         <v>1074</v>
       </c>
-      <c r="J41" s="19">
+      <c r="J41" s="14">
         <v>451</v>
       </c>
-      <c r="K41" s="19">
+      <c r="K41" s="14">
         <v>119</v>
       </c>
-      <c r="L41" s="19">
+      <c r="L41" s="14">
         <v>290</v>
       </c>
-      <c r="M41" s="19">
+      <c r="M41" s="14">
         <v>413</v>
       </c>
-      <c r="N41" s="19">
+      <c r="N41" s="14">
         <v>644</v>
       </c>
-      <c r="O41" s="19">
+      <c r="O41" s="14">
         <v>375</v>
       </c>
-      <c r="P41" s="8">
+      <c r="P41" s="7">
         <v>326</v>
       </c>
-      <c r="Q41" s="29">
+      <c r="Q41" s="19">
         <v>799</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B42" s="7">
@@ -9584,7 +6809,7 @@
       <c r="C42" s="7">
         <v>55</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="7">
         <v>-86</v>
       </c>
       <c r="E42" s="7">
@@ -9596,39 +6821,39 @@
       <c r="G42" s="7">
         <v>31</v>
       </c>
-      <c r="H42" s="19">
+      <c r="H42" s="14">
         <v>109</v>
       </c>
-      <c r="I42" s="19">
+      <c r="I42" s="14">
         <v>-33</v>
       </c>
-      <c r="J42" s="19">
+      <c r="J42" s="14">
         <v>-137</v>
       </c>
-      <c r="K42" s="19">
+      <c r="K42" s="14">
         <v>123</v>
       </c>
-      <c r="L42" s="19">
+      <c r="L42" s="14">
         <v>-106</v>
       </c>
-      <c r="M42" s="19">
+      <c r="M42" s="14">
         <v>-201</v>
       </c>
-      <c r="N42" s="19">
+      <c r="N42" s="14">
         <v>-68</v>
       </c>
-      <c r="O42" s="19">
+      <c r="O42" s="14">
         <v>-86</v>
       </c>
-      <c r="P42" s="8">
+      <c r="P42" s="7">
         <v>-257</v>
       </c>
-      <c r="Q42" s="29">
+      <c r="Q42" s="19">
         <v>-275</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B43" s="7">
@@ -9637,7 +6862,7 @@
       <c r="C43" s="7">
         <v>70</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="7">
         <v>54</v>
       </c>
       <c r="E43" s="7">
@@ -9649,39 +6874,39 @@
       <c r="G43" s="7">
         <v>26</v>
       </c>
-      <c r="H43" s="19">
+      <c r="H43" s="14">
         <v>8</v>
       </c>
-      <c r="I43" s="19">
+      <c r="I43" s="14">
         <v>52</v>
       </c>
-      <c r="J43" s="19">
+      <c r="J43" s="14">
         <v>57</v>
       </c>
-      <c r="K43" s="19">
+      <c r="K43" s="14">
         <v>177</v>
       </c>
-      <c r="L43" s="19">
+      <c r="L43" s="14">
         <v>175</v>
       </c>
-      <c r="M43" s="19">
+      <c r="M43" s="14">
         <v>130</v>
       </c>
-      <c r="N43" s="19">
+      <c r="N43" s="14">
         <v>30</v>
       </c>
-      <c r="O43" s="19">
+      <c r="O43" s="14">
         <v>47</v>
       </c>
-      <c r="P43" s="8">
+      <c r="P43" s="7">
         <v>156</v>
       </c>
-      <c r="Q43" s="29">
+      <c r="Q43" s="19">
         <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B44" s="7">
@@ -9690,7 +6915,7 @@
       <c r="C44" s="7">
         <v>-90</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="7">
         <v>-267</v>
       </c>
       <c r="E44" s="7">
@@ -9702,40 +6927,40 @@
       <c r="G44" s="7">
         <v>144</v>
       </c>
-      <c r="H44" s="19">
+      <c r="H44" s="14">
         <v>-154</v>
       </c>
-      <c r="I44" s="19">
+      <c r="I44" s="14">
         <v>156</v>
       </c>
-      <c r="J44" s="19">
+      <c r="J44" s="14">
         <v>-90</v>
       </c>
-      <c r="K44" s="19">
+      <c r="K44" s="14">
         <v>-465</v>
       </c>
-      <c r="L44" s="19">
+      <c r="L44" s="14">
         <v>-730</v>
       </c>
-      <c r="M44" s="19">
+      <c r="M44" s="14">
         <v>-553</v>
       </c>
-      <c r="N44" s="19">
+      <c r="N44" s="14">
         <v>40</v>
       </c>
-      <c r="O44" s="19">
+      <c r="O44" s="14">
         <v>-102</v>
       </c>
-      <c r="P44" s="8">
+      <c r="P44" s="7">
         <v>-213</v>
       </c>
-      <c r="Q44" s="29">
+      <c r="Q44" s="19">
         <v>-1064</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
-        <v>35</v>
+      <c r="A45" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="B45" s="7">
         <v>-139</v>
@@ -9743,7 +6968,7 @@
       <c r="C45" s="7">
         <v>-171</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="7">
         <v>-114</v>
       </c>
       <c r="E45" s="7">
@@ -9755,39 +6980,39 @@
       <c r="G45" s="7">
         <v>-54</v>
       </c>
-      <c r="H45" s="19">
+      <c r="H45" s="14">
         <v>-83</v>
       </c>
-      <c r="I45" s="19">
+      <c r="I45" s="14">
         <v>-97</v>
       </c>
-      <c r="J45" s="19">
+      <c r="J45" s="14">
         <v>-251</v>
       </c>
-      <c r="K45" s="19">
+      <c r="K45" s="14">
         <v>-298</v>
       </c>
-      <c r="L45" s="19">
+      <c r="L45" s="14">
         <v>-93</v>
       </c>
-      <c r="M45" s="19">
+      <c r="M45" s="14">
         <v>8</v>
       </c>
-      <c r="N45" s="19">
+      <c r="N45" s="14">
         <v>-178</v>
       </c>
-      <c r="O45" s="19">
+      <c r="O45" s="14">
         <v>-228</v>
       </c>
-      <c r="P45" s="8">
+      <c r="P45" s="7">
         <v>-105</v>
       </c>
-      <c r="Q45" s="29">
+      <c r="Q45" s="19">
         <v>-258</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B46" s="7">
@@ -9796,7 +7021,7 @@
       <c r="C46" s="7">
         <v>-14</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D46" s="7">
         <v>109</v>
       </c>
       <c r="E46" s="7">
@@ -9808,39 +7033,39 @@
       <c r="G46" s="7">
         <v>258</v>
       </c>
-      <c r="H46" s="19">
+      <c r="H46" s="14">
         <v>144</v>
       </c>
-      <c r="I46" s="19">
+      <c r="I46" s="14">
         <v>-5</v>
       </c>
-      <c r="J46" s="19">
+      <c r="J46" s="14">
         <v>84</v>
       </c>
-      <c r="K46" s="19">
+      <c r="K46" s="14">
         <v>283</v>
       </c>
-      <c r="L46" s="19">
+      <c r="L46" s="14">
         <v>205</v>
       </c>
-      <c r="M46" s="19">
+      <c r="M46" s="14">
         <v>337</v>
       </c>
-      <c r="N46" s="19">
+      <c r="N46" s="14">
         <v>273</v>
       </c>
-      <c r="O46" s="19">
+      <c r="O46" s="14">
         <v>95</v>
       </c>
-      <c r="P46" s="8">
+      <c r="P46" s="7">
         <v>144</v>
       </c>
-      <c r="Q46" s="29">
+      <c r="Q46" s="19">
         <v>270</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B47" s="7">
@@ -9849,7 +7074,7 @@
       <c r="C47" s="7">
         <v>4884</v>
       </c>
-      <c r="D47" s="8">
+      <c r="D47" s="7">
         <v>4957</v>
       </c>
       <c r="E47" s="7">
@@ -9861,39 +7086,39 @@
       <c r="G47" s="7">
         <v>5440</v>
       </c>
-      <c r="H47" s="19">
+      <c r="H47" s="14">
         <v>7121</v>
       </c>
-      <c r="I47" s="19">
+      <c r="I47" s="14">
         <v>7304</v>
       </c>
-      <c r="J47" s="19">
+      <c r="J47" s="14">
         <v>9125</v>
       </c>
-      <c r="K47" s="19">
+      <c r="K47" s="14">
         <v>7652</v>
       </c>
-      <c r="L47" s="19">
+      <c r="L47" s="14">
         <v>6706</v>
       </c>
-      <c r="M47" s="19">
+      <c r="M47" s="14">
         <v>6027</v>
       </c>
-      <c r="N47" s="19">
+      <c r="N47" s="14">
         <v>6483</v>
       </c>
-      <c r="O47" s="19">
+      <c r="O47" s="14">
         <v>5669</v>
       </c>
-      <c r="P47" s="8">
+      <c r="P47" s="7">
         <v>5427</v>
       </c>
-      <c r="Q47" s="29">
+      <c r="Q47" s="19">
         <v>5232</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B48" s="7">
@@ -9902,7 +7127,7 @@
       <c r="C48" s="7">
         <v>2982</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="7">
         <v>1619</v>
       </c>
       <c r="E48" s="7">
@@ -9914,114 +7139,114 @@
       <c r="G48" s="7">
         <v>2495</v>
       </c>
-      <c r="H48" s="19">
+      <c r="H48" s="14">
         <v>3750</v>
       </c>
-      <c r="I48" s="19">
+      <c r="I48" s="14">
         <v>4110</v>
       </c>
-      <c r="J48" s="19">
+      <c r="J48" s="14">
         <v>2548</v>
       </c>
-      <c r="K48" s="19">
+      <c r="K48" s="14">
         <v>2508</v>
       </c>
-      <c r="L48" s="19">
+      <c r="L48" s="14">
         <v>3687</v>
       </c>
-      <c r="M48" s="19">
+      <c r="M48" s="14">
         <v>3709</v>
       </c>
-      <c r="N48" s="19">
+      <c r="N48" s="14">
         <v>3792</v>
       </c>
-      <c r="O48" s="19">
+      <c r="O48" s="14">
         <v>1700</v>
       </c>
-      <c r="P48" s="8">
+      <c r="P48" s="7">
         <v>3233</v>
       </c>
-      <c r="Q48" s="29">
+      <c r="Q48" s="19">
         <v>2133</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B49" s="8">
+      <c r="B49" s="7">
         <v>2278</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="7">
         <v>842</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="7">
         <v>416</v>
       </c>
-      <c r="E49" s="8">
+      <c r="E49" s="7">
         <v>412</v>
       </c>
-      <c r="F49" s="8">
+      <c r="F49" s="7">
         <v>444</v>
       </c>
-      <c r="G49" s="8">
+      <c r="G49" s="7">
         <v>170</v>
       </c>
-      <c r="H49" s="19">
+      <c r="H49" s="14">
         <v>554</v>
       </c>
-      <c r="I49" s="19">
+      <c r="I49" s="14">
         <v>172</v>
       </c>
-      <c r="J49" s="19">
+      <c r="J49" s="14">
         <v>661</v>
       </c>
-      <c r="K49" s="19">
+      <c r="K49" s="14">
         <v>734</v>
       </c>
-      <c r="L49" s="19">
+      <c r="L49" s="14">
         <v>1689</v>
       </c>
-      <c r="M49" s="19">
+      <c r="M49" s="14">
         <v>990</v>
       </c>
-      <c r="N49" s="19">
+      <c r="N49" s="14">
         <v>1023</v>
       </c>
-      <c r="O49" s="19">
+      <c r="O49" s="14">
         <v>1034</v>
       </c>
-      <c r="P49" s="8">
+      <c r="P49" s="7">
         <v>1151</v>
       </c>
-      <c r="Q49" s="29">
+      <c r="Q49" s="19">
         <v>4874</v>
       </c>
     </row>
-    <row r="50" spans="1:17" s="22" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="36" t="s">
+    <row r="50" spans="1:17" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B50" s="36"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="36"/>
-      <c r="H50" s="36"/>
-      <c r="I50" s="36"/>
-      <c r="J50" s="36"/>
-      <c r="K50" s="36"/>
-      <c r="L50" s="36"/>
-      <c r="M50" s="36"/>
-      <c r="N50" s="36"/>
-      <c r="O50" s="36"/>
-      <c r="P50" s="36"/>
-      <c r="Q50" s="36"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="26"/>
+      <c r="L50" s="26"/>
+      <c r="M50" s="26"/>
+      <c r="N50" s="26"/>
+      <c r="O50" s="26"/>
+      <c r="P50" s="26"/>
+      <c r="Q50" s="26"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
-        <v>37</v>
+      <c r="A51" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="B51" s="7">
         <v>-613</v>
@@ -10029,7 +7254,7 @@
       <c r="C51" s="7">
         <v>-409</v>
       </c>
-      <c r="D51" s="8">
+      <c r="D51" s="7">
         <v>-344</v>
       </c>
       <c r="E51" s="7">
@@ -10068,30 +7293,30 @@
       <c r="P51" s="7">
         <v>-414</v>
       </c>
-      <c r="Q51" s="29">
+      <c r="Q51" s="19">
         <v>-580</v>
       </c>
     </row>
-    <row r="52" spans="1:17" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="17" t="s">
+    <row r="52" spans="1:17" s="15" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="19">
+      <c r="B52" s="14">
         <v>-580</v>
       </c>
-      <c r="C52" s="19">
+      <c r="C52" s="14">
         <v>-504</v>
       </c>
-      <c r="D52" s="20">
+      <c r="D52" s="14">
         <v>-6</v>
       </c>
-      <c r="E52" s="19">
+      <c r="E52" s="14">
         <v>-517</v>
       </c>
-      <c r="F52" s="19">
+      <c r="F52" s="14">
         <v>-386</v>
       </c>
-      <c r="G52" s="19">
+      <c r="G52" s="14">
         <v>-462</v>
       </c>
       <c r="H52" s="7">
@@ -10121,12 +7346,12 @@
       <c r="P52" s="7">
         <v>-458</v>
       </c>
-      <c r="Q52" s="29">
+      <c r="Q52" s="19">
         <v>-429</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B53" s="7">
@@ -10135,7 +7360,7 @@
       <c r="C53" s="7">
         <v>-338</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D53" s="7">
         <v>-376</v>
       </c>
       <c r="E53" s="7">
@@ -10174,12 +7399,12 @@
       <c r="P53" s="7">
         <v>-353</v>
       </c>
-      <c r="Q53" s="29">
+      <c r="Q53" s="19">
         <v>-684</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B54" s="7">
@@ -10188,7 +7413,7 @@
       <c r="C54" s="7">
         <v>-42</v>
       </c>
-      <c r="D54" s="8">
+      <c r="D54" s="7">
         <v>383</v>
       </c>
       <c r="E54" s="7">
@@ -10227,12 +7452,12 @@
       <c r="P54" s="7">
         <v>339</v>
       </c>
-      <c r="Q54" s="29">
+      <c r="Q54" s="19">
         <v>1286</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B55" s="7">
@@ -10241,7 +7466,7 @@
       <c r="C55" s="7">
         <v>283</v>
       </c>
-      <c r="D55" s="8">
+      <c r="D55" s="7">
         <v>197</v>
       </c>
       <c r="E55" s="7">
@@ -10280,12 +7505,12 @@
       <c r="P55" s="7">
         <v>-119</v>
       </c>
-      <c r="Q55" s="29">
+      <c r="Q55" s="19">
         <v>-286</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B56" s="7">
@@ -10294,7 +7519,7 @@
       <c r="C56" s="7">
         <v>-331</v>
       </c>
-      <c r="D56" s="8">
+      <c r="D56" s="7">
         <v>-291</v>
       </c>
       <c r="E56" s="7">
@@ -10333,12 +7558,12 @@
       <c r="P56" s="7">
         <v>-428</v>
       </c>
-      <c r="Q56" s="29">
+      <c r="Q56" s="19">
         <v>-516</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B57" s="7">
@@ -10347,7 +7572,7 @@
       <c r="C57" s="7">
         <v>-1238</v>
       </c>
-      <c r="D57" s="8">
+      <c r="D57" s="7">
         <v>-932</v>
       </c>
       <c r="E57" s="7">
@@ -10386,13 +7611,13 @@
       <c r="P57" s="7">
         <v>-1327</v>
       </c>
-      <c r="Q57" s="29">
+      <c r="Q57" s="19">
         <v>-1379</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" s="10" t="s">
-        <v>36</v>
+      <c r="A58" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="B58" s="7">
         <v>-871</v>
@@ -10400,7 +7625,7 @@
       <c r="C58" s="7">
         <v>-622</v>
       </c>
-      <c r="D58" s="8">
+      <c r="D58" s="7">
         <v>-464</v>
       </c>
       <c r="E58" s="7">
@@ -10439,12 +7664,12 @@
       <c r="P58" s="7">
         <v>-668</v>
       </c>
-      <c r="Q58" s="29">
+      <c r="Q58" s="19">
         <v>-562</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B59" s="7">
@@ -10492,12 +7717,12 @@
       <c r="P59" s="7">
         <v>-415</v>
       </c>
-      <c r="Q59" s="29">
+      <c r="Q59" s="19">
         <v>-608</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B60" s="7">
@@ -10545,12 +7770,12 @@
       <c r="P60" s="7">
         <v>-555</v>
       </c>
-      <c r="Q60" s="29">
+      <c r="Q60" s="19">
         <v>-566</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B61" s="7">
@@ -10598,12 +7823,12 @@
       <c r="P61" s="7">
         <v>-514</v>
       </c>
-      <c r="Q61" s="29">
+      <c r="Q61" s="19">
         <v>-483</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B62" s="7">
@@ -10651,12 +7876,12 @@
       <c r="P62" s="7">
         <v>-434</v>
       </c>
-      <c r="Q62" s="29">
+      <c r="Q62" s="19">
         <v>-684</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B63" s="7">
@@ -10704,12 +7929,12 @@
       <c r="P63" s="7">
         <v>-278</v>
       </c>
-      <c r="Q63" s="29">
+      <c r="Q63" s="19">
         <v>-459</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B64" s="7">
@@ -10757,12 +7982,12 @@
       <c r="P64" s="7">
         <v>-606</v>
       </c>
-      <c r="Q64" s="29">
+      <c r="Q64" s="19">
         <v>-447</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B65" s="7">
@@ -10810,13 +8035,13 @@
       <c r="P65" s="7">
         <v>-2759</v>
       </c>
-      <c r="Q65" s="29">
+      <c r="Q65" s="19">
         <v>-5055</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="10" t="s">
-        <v>35</v>
+      <c r="A66" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="B66" s="7">
         <v>-93</v>
@@ -10863,68 +8088,68 @@
       <c r="P66" s="7">
         <v>-75</v>
       </c>
-      <c r="Q66" s="29">
+      <c r="Q66" s="19">
         <v>-85</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" s="11" t="s">
+      <c r="A67" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B67" s="12">
+      <c r="B67" s="11">
         <v>-292</v>
       </c>
-      <c r="C67" s="12">
+      <c r="C67" s="11">
         <v>-166</v>
       </c>
-      <c r="D67" s="12">
+      <c r="D67" s="11">
         <v>-257</v>
       </c>
-      <c r="E67" s="12">
+      <c r="E67" s="11">
         <v>-240</v>
       </c>
-      <c r="F67" s="12">
+      <c r="F67" s="11">
         <v>-374</v>
       </c>
-      <c r="G67" s="12">
+      <c r="G67" s="11">
         <v>-459</v>
       </c>
-      <c r="H67" s="12">
+      <c r="H67" s="11">
         <v>-444</v>
       </c>
-      <c r="I67" s="12">
+      <c r="I67" s="11">
         <v>-283</v>
       </c>
-      <c r="J67" s="12">
+      <c r="J67" s="11">
         <v>-479</v>
       </c>
-      <c r="K67" s="12">
+      <c r="K67" s="11">
         <v>-528</v>
       </c>
-      <c r="L67" s="12">
+      <c r="L67" s="11">
         <v>-634</v>
       </c>
-      <c r="M67" s="12">
+      <c r="M67" s="11">
         <v>-497</v>
       </c>
-      <c r="N67" s="12">
+      <c r="N67" s="11">
         <v>-603</v>
       </c>
-      <c r="O67" s="12">
+      <c r="O67" s="11">
         <v>-400</v>
       </c>
-      <c r="P67" s="12">
+      <c r="P67" s="11">
         <v>-421</v>
       </c>
-      <c r="Q67" s="30">
+      <c r="Q67" s="20">
         <v>-571</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A71" s="18"/>
+      <c r="A71" s="8"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A72" s="18"/>
+      <c r="A72" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="7">
